--- a/input/Truth-easy-compare.xlsx
+++ b/input/Truth-easy-compare.xlsx
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152:G155"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C78" sqref="A78:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2245,13 +2245,13 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>30792</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D78" s="1">
@@ -2345,13 +2345,13 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="2">
+      <c r="A83" s="4">
         <v>31313</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="1">
@@ -2436,13 +2436,13 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>31779</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="2">
+      <c r="B88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="4">
         <v>95825</v>
       </c>
       <c r="D88" s="1">
@@ -2505,13 +2505,13 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>31981</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="2">
+      <c r="B92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="4">
         <v>58783</v>
       </c>
       <c r="D92" s="1">
@@ -2547,13 +2547,13 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>32213</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D95" s="1">
@@ -2594,13 +2594,13 @@
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
+      <c r="A97" s="4">
         <v>32466</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2">
+      <c r="B97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="4">
         <v>37644</v>
       </c>
       <c r="D97" s="1">
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="2">
+      <c r="A100" s="4">
         <v>32916</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="2">
+      <c r="B100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4">
         <v>38577</v>
       </c>
       <c r="D100" s="1">
@@ -2765,13 +2765,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
+      <c r="A107" s="4">
         <v>34374</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="B107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="4">
         <v>4733</v>
       </c>
       <c r="D107" s="1">
@@ -2876,13 +2876,13 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="2">
+      <c r="A113" s="4">
         <v>35232</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="B113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D113" s="1">
@@ -2985,13 +2985,13 @@
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="2">
+      <c r="A119" s="4">
         <v>36279</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2">
+      <c r="B119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="4">
         <v>27416</v>
       </c>
       <c r="D119" s="1">
@@ -3122,13 +3122,13 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="2">
+      <c r="A129" s="4">
         <v>37398</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="2">
+      <c r="B129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="4">
         <v>72059</v>
       </c>
       <c r="D129" s="1">
@@ -3231,13 +3231,13 @@
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="2">
+      <c r="A135" s="4">
         <v>38070</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="2">
+      <c r="B135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="4">
         <v>67870</v>
       </c>
       <c r="D135" s="1">
@@ -3251,13 +3251,13 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="2">
+      <c r="A136" s="4">
         <v>38167</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="B136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D136" s="1">
@@ -3353,13 +3353,13 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="2">
+      <c r="A142" s="4">
         <v>38552</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="2" t="s">
+      <c r="B142" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="1">
@@ -3373,13 +3373,13 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="2">
+      <c r="A143" s="4">
         <v>38652</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="2" t="s">
+      <c r="B143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D143" s="1">
@@ -3453,13 +3453,13 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="2">
+      <c r="A147" s="4">
         <v>39154</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="2">
+      <c r="B147" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="4">
         <v>80922</v>
       </c>
       <c r="D147" s="1">
@@ -3473,13 +3473,13 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="2">
+      <c r="A148" s="4">
         <v>39190</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="2" t="s">
+      <c r="B148" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D148" s="1">
@@ -3493,13 +3493,13 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="2">
+      <c r="A149" s="4">
         <v>39257</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="B149" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D149" s="1">
@@ -3565,13 +3565,13 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="2">
+      <c r="A153" s="4">
         <v>39835</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" s="2" t="s">
+      <c r="B153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D153" s="1">
@@ -3586,13 +3586,13 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="2">
+      <c r="A154" s="4">
         <v>39853</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="2">
+      <c r="B154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="4">
         <v>50551</v>
       </c>
       <c r="D154" s="1">

--- a/input/Truth-easy-compare.xlsx
+++ b/input/Truth-easy-compare.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Truth-easy" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="367">
   <si>
     <t>FNAME</t>
   </si>
@@ -313,6 +315,819 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Drumright</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Emmaline</t>
+  </si>
+  <si>
+    <t>Schuermeyer Ave</t>
+  </si>
+  <si>
+    <t>Theda</t>
+  </si>
+  <si>
+    <t>Humburg</t>
+  </si>
+  <si>
+    <t>Setsuko St</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Lopiano</t>
+  </si>
+  <si>
+    <t>Wenig Parkway</t>
+  </si>
+  <si>
+    <t>Yaegashi</t>
+  </si>
+  <si>
+    <t>Margolin</t>
+  </si>
+  <si>
+    <t>Mayya Ave</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Landis</t>
+  </si>
+  <si>
+    <t>Uswrsd Lane</t>
+  </si>
+  <si>
+    <t>Piqueras</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Weger</t>
+  </si>
+  <si>
+    <t>Herold Road</t>
+  </si>
+  <si>
+    <t>Russel</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Dewevre</t>
+  </si>
+  <si>
+    <t>Depolo Lane</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Annika Rd</t>
+  </si>
+  <si>
+    <t>Feller</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Hongslo</t>
+  </si>
+  <si>
+    <t>Jit Road</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Tominaga</t>
+  </si>
+  <si>
+    <t>Mateo Rd</t>
+  </si>
+  <si>
+    <t>Shiong</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Sermonne</t>
+  </si>
+  <si>
+    <t>Gustin Street</t>
+  </si>
+  <si>
+    <t>8m1</t>
+  </si>
+  <si>
+    <t>Matheson</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Frederiksted</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Haverhill</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Jamestown</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Stanton</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Stark City</t>
+  </si>
+  <si>
+    <t>Fair Haven</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Tropic</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Powersite</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>31737</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>485843301</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>80830</t>
+  </si>
+  <si>
+    <t>10503</t>
+  </si>
+  <si>
+    <t>52652</t>
+  </si>
+  <si>
+    <t>658385152</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>96819</t>
+  </si>
+  <si>
+    <t>17105</t>
+  </si>
+  <si>
+    <t>54293</t>
+  </si>
+  <si>
+    <t>408300820</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>00840</t>
+  </si>
+  <si>
+    <t>25836</t>
+  </si>
+  <si>
+    <t>56465</t>
+  </si>
+  <si>
+    <t>267878854</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>01830</t>
+  </si>
+  <si>
+    <t>30679</t>
+  </si>
+  <si>
+    <t>679</t>
+  </si>
+  <si>
+    <t>623328460</t>
+  </si>
+  <si>
+    <t>58401</t>
+  </si>
+  <si>
+    <t>31106</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>732035623</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>46532</t>
+  </si>
+  <si>
+    <t>32924</t>
+  </si>
+  <si>
+    <t>2924</t>
+  </si>
+  <si>
+    <t>412887343</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>65607</t>
+  </si>
+  <si>
+    <t>34500</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>735566826</t>
+  </si>
+  <si>
+    <t>05731</t>
+  </si>
+  <si>
+    <t>35012</t>
+  </si>
+  <si>
+    <t>5012</t>
+  </si>
+  <si>
+    <t>407627880</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>40078</t>
+  </si>
+  <si>
+    <t>35019</t>
+  </si>
+  <si>
+    <t>5019</t>
+  </si>
+  <si>
+    <t>317468833</t>
+  </si>
+  <si>
+    <t>84776</t>
+  </si>
+  <si>
+    <t>36841</t>
+  </si>
+  <si>
+    <t>6841</t>
+  </si>
+  <si>
+    <t>555420664</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>50065</t>
+  </si>
+  <si>
+    <t>Pitton</t>
+  </si>
+  <si>
+    <t>Dinnie</t>
+  </si>
+  <si>
+    <t>Qainfo Lane</t>
+  </si>
+  <si>
+    <t>0q6</t>
+  </si>
+  <si>
+    <t>Rosebud</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Bendite</t>
+  </si>
+  <si>
+    <t>Studds</t>
+  </si>
+  <si>
+    <t>Seetradevi Rd</t>
+  </si>
+  <si>
+    <t>Doland</t>
+  </si>
+  <si>
+    <t>Tomacic</t>
+  </si>
+  <si>
+    <t>Kausche</t>
+  </si>
+  <si>
+    <t>Fait Street</t>
+  </si>
+  <si>
+    <t>Cruz Bay</t>
+  </si>
+  <si>
+    <t>Portie</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Wampler</t>
+  </si>
+  <si>
+    <t>Niekamp Street</t>
+  </si>
+  <si>
+    <t>Keldron</t>
+  </si>
+  <si>
+    <t>Bego</t>
+  </si>
+  <si>
+    <t>Langhans</t>
+  </si>
+  <si>
+    <t>Sinkovic</t>
+  </si>
+  <si>
+    <t>Pilot Knob</t>
+  </si>
+  <si>
+    <t>Beitz</t>
+  </si>
+  <si>
+    <t>Zagubar</t>
+  </si>
+  <si>
+    <t>Terumi Rd</t>
+  </si>
+  <si>
+    <t>Bancroft</t>
+  </si>
+  <si>
+    <t>Waiman</t>
+  </si>
+  <si>
+    <t>Vlug Street</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Celestine</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Yabuta</t>
+  </si>
+  <si>
+    <t>Mingming St</t>
+  </si>
+  <si>
+    <t>Brownlee</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>Scrimgeour</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Lechelt</t>
+  </si>
+  <si>
+    <t>Tellup Avenue</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Lagrone</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Dimitrios</t>
+  </si>
+  <si>
+    <t>Handoko Street</t>
+  </si>
+  <si>
+    <t>Breeden</t>
+  </si>
+  <si>
+    <t>Tagle</t>
+  </si>
+  <si>
+    <t>Konstantino Avenue</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>Sakiko</t>
+  </si>
+  <si>
+    <t>Norhizah</t>
+  </si>
+  <si>
+    <t>Goldie Avenue</t>
+  </si>
+  <si>
+    <t>Chignik</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Aurdal</t>
+  </si>
+  <si>
+    <t>Derrith Street</t>
+  </si>
+  <si>
+    <t>Marlton</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>31844</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>000000000</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>59347</t>
+  </si>
+  <si>
+    <t>7051</t>
+  </si>
+  <si>
+    <t>51791</t>
+  </si>
+  <si>
+    <t>207618638</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>57436</t>
+  </si>
+  <si>
+    <t>9033</t>
+  </si>
+  <si>
+    <t>52285</t>
+  </si>
+  <si>
+    <t>470705377</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>00831</t>
+  </si>
+  <si>
+    <t>11577</t>
+  </si>
+  <si>
+    <t>52916</t>
+  </si>
+  <si>
+    <t>103215300</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>57634</t>
+  </si>
+  <si>
+    <t>18441</t>
+  </si>
+  <si>
+    <t>54620</t>
+  </si>
+  <si>
+    <t>406535763</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>63663</t>
+  </si>
+  <si>
+    <t>29198</t>
+  </si>
+  <si>
+    <t>57301</t>
+  </si>
+  <si>
+    <t>174334057</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>83217</t>
+  </si>
+  <si>
+    <t>32864</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>531363657</t>
+  </si>
+  <si>
+    <t>19806</t>
+  </si>
+  <si>
+    <t>33421</t>
+  </si>
+  <si>
+    <t>3421</t>
+  </si>
+  <si>
+    <t>266011475</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>65329</t>
+  </si>
+  <si>
+    <t>33476</t>
+  </si>
+  <si>
+    <t>3476</t>
+  </si>
+  <si>
+    <t>668214274</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>03108</t>
+  </si>
+  <si>
+    <t>34728</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>725572581</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>60042</t>
+  </si>
+  <si>
+    <t>35952</t>
+  </si>
+  <si>
+    <t>5952</t>
+  </si>
+  <si>
+    <t>440108412</t>
+  </si>
+  <si>
+    <t>01253</t>
+  </si>
+  <si>
+    <t>36531</t>
+  </si>
+  <si>
+    <t>6531</t>
+  </si>
+  <si>
+    <t>481185801</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>99564</t>
+  </si>
+  <si>
+    <t>38078</t>
+  </si>
+  <si>
+    <t>8078</t>
+  </si>
+  <si>
+    <t>340300533</t>
+  </si>
+  <si>
+    <t>08053</t>
+  </si>
+  <si>
+    <t>4i2</t>
+  </si>
+  <si>
+    <t>1b5</t>
+  </si>
+  <si>
+    <t>7r6</t>
+  </si>
+  <si>
+    <t>Mespelt</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Waldeker</t>
+  </si>
+  <si>
+    <t>Pharr Road</t>
+  </si>
+  <si>
+    <t>6n6</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>Rahama</t>
+  </si>
+  <si>
+    <t>Laurinovics</t>
+  </si>
+  <si>
+    <t>Nolina St</t>
+  </si>
+  <si>
+    <t>5k2</t>
+  </si>
+  <si>
+    <t>Hopkinton</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Fumio</t>
+  </si>
+  <si>
+    <t>Spengler</t>
+  </si>
+  <si>
+    <t>Roches St</t>
+  </si>
+  <si>
+    <t>4m1</t>
+  </si>
+  <si>
+    <t>Hepbu</t>
+  </si>
+  <si>
+    <t>Maan</t>
+  </si>
+  <si>
+    <t>Bildhauer Road</t>
+  </si>
+  <si>
+    <t>4o3</t>
+  </si>
+  <si>
+    <t>Feeters</t>
+  </si>
+  <si>
+    <t>Bytheway</t>
+  </si>
+  <si>
+    <t>Lisah Avenue</t>
+  </si>
+  <si>
+    <t>7k6</t>
+  </si>
+  <si>
+    <t>Reseau Ln</t>
+  </si>
+  <si>
+    <t>1w6</t>
+  </si>
+  <si>
+    <t>Latah</t>
+  </si>
+  <si>
+    <t>Bourdjakian</t>
+  </si>
+  <si>
+    <t>Sanjeet</t>
+  </si>
+  <si>
+    <t>Justus Road</t>
+  </si>
+  <si>
+    <t>6q4</t>
+  </si>
+  <si>
+    <t>Matilda Rd</t>
+  </si>
+  <si>
+    <t>2f5</t>
+  </si>
+  <si>
+    <t>Birdseye</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -362,9 +1177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -376,6 +1194,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C78" sqref="A78:C78"/>
+    <sheetView topLeftCell="D80" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -666,6 +1486,8 @@
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1757,15 +2579,9 @@
         <v>42</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1">
-        <v>20984</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="1">
-        <v>62536</v>
-      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
@@ -1787,15 +2603,9 @@
         <v>1984</v>
       </c>
       <c r="I55" s="1"/>
-      <c r="J55" s="1">
-        <v>20985</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L55" s="1">
-        <v>62536</v>
-      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -1817,15 +2627,9 @@
         <v>50</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="1">
-        <v>20986</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L56" s="1">
-        <v>62536</v>
-      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
@@ -2214,13 +3018,13 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>30502</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2245,13 +3049,13 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>30792</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="B78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D78" s="1">
@@ -2304,7 +3108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>31109</v>
       </c>
@@ -2324,7 +3128,7 @@
         <v>59826</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>31267</v>
       </c>
@@ -2344,14 +3148,14 @@
         <v>57252</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
         <v>31313</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="1">
@@ -2364,7 +3168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>31353</v>
       </c>
@@ -2384,14 +3188,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
         <v>31364</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="1">
@@ -2403,19 +3207,67 @@
       <c r="F85" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="2">
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
         <v>31737</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H86" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S86" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>31762</v>
       </c>
@@ -2434,15 +3286,51 @@
       <c r="F87" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
+      <c r="H87" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="S87" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
         <v>31779</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5">
         <v>95825</v>
       </c>
       <c r="D88" s="1">
@@ -2454,15 +3342,44 @@
       <c r="F88" s="1">
         <v>95825</v>
       </c>
-      <c r="I88" s="1">
-        <v>31784</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H88" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>31784</v>
       </c>
@@ -2481,37 +3398,145 @@
       <c r="F89" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
+      <c r="H89" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
         <v>31844</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
+      <c r="H90" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
         <v>31979</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="2">
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3">
         <v>58501</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="4">
+      <c r="H91" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
         <v>31981</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="B92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="5">
         <v>58783</v>
       </c>
       <c r="D92" s="1">
@@ -2523,37 +3548,145 @@
       <c r="F92" s="1">
         <v>58783</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
+      <c r="H92" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S92" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
         <v>32080</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
+      <c r="H93" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
         <v>32094</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2">
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3">
         <v>18415</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="4">
+      <c r="H94" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
         <v>32213</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D95" s="1">
@@ -2565,8 +3698,44 @@
       <c r="F95" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H95" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O95" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="R95" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="S95" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>32241</v>
       </c>
@@ -2585,22 +3754,51 @@
       <c r="F96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I96" s="1">
-        <v>32241</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A97" s="4">
+      <c r="H96" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q96" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="S96" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
         <v>32466</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="4">
+      <c r="B97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="5">
         <v>37644</v>
       </c>
       <c r="D97" s="1">
@@ -2613,18 +3811,54 @@
         <v>37644</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
         <v>32592</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2">
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3">
         <v>83244</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H98" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>32796</v>
       </c>
@@ -2643,15 +3877,51 @@
       <c r="F99" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="4">
+      <c r="H99" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
         <v>32916</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
         <v>38577</v>
       </c>
       <c r="D100" s="1">
@@ -2663,8 +3933,44 @@
       <c r="F100" s="1">
         <v>38577</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H100" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="S100" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>33061</v>
       </c>
@@ -2683,37 +3989,138 @@
       <c r="F101" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="2">
+      <c r="H101" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="S101" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
         <v>33134</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="2">
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3">
         <v>20815</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="2">
+      <c r="H102" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S102" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
         <v>33234</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I103" s="1">
-        <v>33441</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H103" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S103" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>33411</v>
       </c>
@@ -2732,8 +4139,44 @@
       <c r="F104" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H104" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="O104" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S104" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>33441</v>
       </c>
@@ -2752,26 +4195,98 @@
       <c r="F105" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="2">
+      <c r="H105" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="S105" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
         <v>33949</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="2">
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3">
         <v>21161</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="4">
+      <c r="H106" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S106" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A107" s="5">
         <v>34374</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="4">
+      <c r="B107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="5">
         <v>4733</v>
       </c>
       <c r="D107" s="1">
@@ -2783,8 +4298,44 @@
       <c r="F107" s="1">
         <v>4733</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H107" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q107" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S107" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>34524</v>
       </c>
@@ -2803,8 +4354,44 @@
       <c r="F108" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H108" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q108" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S108" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>34629</v>
       </c>
@@ -2823,19 +4410,91 @@
       <c r="F109" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="2">
+      <c r="H109" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q109" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="S109" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A110" s="3">
         <v>34863</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H110" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="N110" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q110" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>34977</v>
       </c>
@@ -2855,7 +4514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>35058</v>
       </c>
@@ -2876,13 +4535,13 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>35232</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="B113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D113" s="1">
@@ -2916,24 +4575,24 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>35455</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="B115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>35706</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="B116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2976,22 +4635,18 @@
       <c r="F118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I118" s="1">
-        <v>35719</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="4">
+      <c r="A119" s="5">
         <v>36279</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="4">
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="5">
         <v>27416</v>
       </c>
       <c r="D119" s="1">
@@ -3005,79 +4660,79 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>36350</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="2">
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3">
         <v>89505</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>36478</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="3">
         <v>66018</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>36563</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="B122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>36706</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="2">
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="3">
         <v>68868</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>36846</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="2" t="s">
+      <c r="B124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>37074</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="2">
+      <c r="B125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3">
         <v>83714</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>37227</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="2">
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3">
         <v>85777</v>
       </c>
     </row>
@@ -3122,13 +4777,13 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>37398</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="4">
+      <c r="B129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="5">
         <v>72059</v>
       </c>
       <c r="D129" s="1">
@@ -3162,24 +4817,24 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>37680</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="2">
+      <c r="B131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="3">
         <v>59530</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>37861</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="2">
+      <c r="B132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="3">
         <v>46783</v>
       </c>
     </row>
@@ -3225,19 +4880,17 @@
       <c r="H134" s="1">
         <v>37920</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A135" s="4">
+      <c r="A135" s="5">
         <v>38070</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="4">
+      <c r="B135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="5">
         <v>67870</v>
       </c>
       <c r="D135" s="1">
@@ -3251,13 +4904,13 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A136" s="4">
+      <c r="A136" s="5">
         <v>38167</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="4" t="s">
+      <c r="B136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D136" s="1">
@@ -3271,24 +4924,24 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>38188</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" s="2">
+      <c r="B137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="3">
         <v>23964</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>38206</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" s="2" t="s">
+      <c r="B138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3353,13 +5006,13 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A142" s="4">
+      <c r="A142" s="5">
         <v>38552</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="B142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="1">
@@ -3373,13 +5026,13 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A143" s="4">
+      <c r="A143" s="5">
         <v>38652</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="B143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D143" s="1">
@@ -3453,13 +5106,13 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="4">
+      <c r="A147" s="5">
         <v>39154</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="4">
+      <c r="B147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="5">
         <v>80922</v>
       </c>
       <c r="D147" s="1">
@@ -3473,13 +5126,13 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="4">
+      <c r="A148" s="5">
         <v>39190</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="4" t="s">
+      <c r="B148" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D148" s="1">
@@ -3493,13 +5146,13 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="4">
+      <c r="A149" s="5">
         <v>39257</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="4" t="s">
+      <c r="B149" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D149" s="1">
@@ -3533,13 +5186,13 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>39458</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="2">
+      <c r="B151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3">
         <v>58103</v>
       </c>
     </row>
@@ -3565,13 +5218,13 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="4">
+      <c r="A153" s="5">
         <v>39835</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" s="4" t="s">
+      <c r="B153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D153" s="1">
@@ -3586,13 +5239,13 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="4">
+      <c r="A154" s="5">
         <v>39853</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="4">
+      <c r="B154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="5">
         <v>50551</v>
       </c>
       <c r="D154" s="1">
@@ -3640,4 +5293,6410 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <v>374</v>
+      </c>
+      <c r="D1" s="1">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>295</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>295</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>322</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>322</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>702</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>427</v>
+      </c>
+      <c r="D4" s="1">
+        <v>702</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>891</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>738160168</v>
+      </c>
+      <c r="D5" s="1">
+        <v>891</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>738160168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1138</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1460</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1671</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1671</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>2373</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2373</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>3219</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>96334</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3219</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>96334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>3384</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3384</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>3511</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3511</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>3590</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3590</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>3878</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>634</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3878</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>3921</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>919</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3921</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>4281</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>649</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4281</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>4498</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4498</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>4629</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4629</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>5105</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5105</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>5166</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19955</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5166</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>5407</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>564</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5407</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>5993</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>561046513</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5993</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>561046513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>6010</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6010</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>6185</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>343</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6185</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>7417</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7417</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>7515</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7515</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>7894</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7894</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>7902</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42406</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7902</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>8212</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>483438704</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8212</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>483438704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>8257</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>978</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8257</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>10665</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>457340183</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10665</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>457340183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>10923</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>240</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10923</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>11938</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>555</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11938</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>11962</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11962</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>12601</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3034</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12601</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>13226</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13226</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>13260</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3057</v>
+      </c>
+      <c r="D37" s="1">
+        <v>13260</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>13426</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13426</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>13650</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>247173463</v>
+      </c>
+      <c r="D39" s="1">
+        <v>13650</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>247173463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>14256</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14256</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>14595</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14595</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>15043</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>25632</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15043</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>25632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>15193</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>55101</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15193</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>55101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>15479</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15479</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>16464</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
+        <v>16464</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>16666</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1">
+        <v>16666</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>16828</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>170456775</v>
+      </c>
+      <c r="D47" s="1">
+        <v>16828</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>170456775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>17497</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1">
+        <v>17497</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>19726</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1">
+        <v>19726</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>20139</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20139</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>20181</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>713500276</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20181</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>713500276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>20479</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>20479</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>20825</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20825</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>21451</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1">
+        <v>21451</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>22514</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D55" s="1">
+        <v>22514</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1984</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>22577</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1">
+        <v>22577</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>22745</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1">
+        <v>22745</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>22825</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1">
+        <v>22825</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>23361</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>23361</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>24248</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>727681570</v>
+      </c>
+      <c r="D60" s="1">
+        <v>24248</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>727681570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>24510</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>646</v>
+      </c>
+      <c r="D61" s="1">
+        <v>24510</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>25517</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>25517</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>26820</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="1">
+        <v>26820</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>27268</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1">
+        <v>27268</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>27453</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>185</v>
+      </c>
+      <c r="D65" s="1">
+        <v>27453</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>27553</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="1">
+        <v>27553</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>27661</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="1">
+        <v>27661</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>28373</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="1">
+        <v>28373</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>28604</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>281831674</v>
+      </c>
+      <c r="D69" s="1">
+        <v>28604</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
+        <v>281831674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>28756</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>28756</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>28993</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="1">
+        <v>28993</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>29002</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1">
+        <v>29002</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>29236</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="1">
+        <v>29236</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>29409</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="1">
+        <v>29409</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>29622</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="1">
+        <v>29622</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>30502</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76">
+        <v>30502</v>
+      </c>
+      <c r="J76">
+        <v>502</v>
+      </c>
+      <c r="K76">
+        <v>461155587</v>
+      </c>
+      <c r="L76" t="s">
+        <v>332</v>
+      </c>
+      <c r="M76" t="s">
+        <v>333</v>
+      </c>
+      <c r="N76" t="s">
+        <v>334</v>
+      </c>
+      <c r="O76">
+        <v>406</v>
+      </c>
+      <c r="P76" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>336</v>
+      </c>
+      <c r="R76" t="s">
+        <v>337</v>
+      </c>
+      <c r="S76" t="s">
+        <v>155</v>
+      </c>
+      <c r="T76">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>30788</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>83423</v>
+      </c>
+      <c r="D77" s="1">
+        <v>30788</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>83423</v>
+      </c>
+      <c r="I77">
+        <v>4529</v>
+      </c>
+      <c r="J77">
+        <v>51153</v>
+      </c>
+      <c r="K77">
+        <v>187055443</v>
+      </c>
+      <c r="L77" t="s">
+        <v>338</v>
+      </c>
+      <c r="M77" t="s">
+        <v>110</v>
+      </c>
+      <c r="N77" t="s">
+        <v>339</v>
+      </c>
+      <c r="O77">
+        <v>162</v>
+      </c>
+      <c r="P77" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>341</v>
+      </c>
+      <c r="R77" t="s">
+        <v>342</v>
+      </c>
+      <c r="S77" t="s">
+        <v>343</v>
+      </c>
+      <c r="T77">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <v>30792</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="1">
+        <v>30792</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78">
+        <v>10433</v>
+      </c>
+      <c r="J78">
+        <v>52633</v>
+      </c>
+      <c r="K78">
+        <v>340770261</v>
+      </c>
+      <c r="L78" t="s">
+        <v>344</v>
+      </c>
+      <c r="M78" t="s">
+        <v>128</v>
+      </c>
+      <c r="N78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O78">
+        <v>830</v>
+      </c>
+      <c r="P78" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>347</v>
+      </c>
+      <c r="R78" t="s">
+        <v>342</v>
+      </c>
+      <c r="S78" t="s">
+        <v>343</v>
+      </c>
+      <c r="T78">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>30982</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>26833</v>
+      </c>
+      <c r="D79" s="1">
+        <v>30982</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>26833</v>
+      </c>
+      <c r="I79">
+        <v>20150</v>
+      </c>
+      <c r="J79" s="1">
+        <v>55049</v>
+      </c>
+      <c r="K79" s="1">
+        <v>372135127</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79" t="s">
+        <v>349</v>
+      </c>
+      <c r="O79">
+        <v>189</v>
+      </c>
+      <c r="P79" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>351</v>
+      </c>
+      <c r="R79" t="s">
+        <v>342</v>
+      </c>
+      <c r="S79" t="s">
+        <v>343</v>
+      </c>
+      <c r="T79">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>31086</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="1">
+        <v>31086</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I80">
+        <v>21931</v>
+      </c>
+      <c r="J80">
+        <v>55495</v>
+      </c>
+      <c r="K80">
+        <v>415522283</v>
+      </c>
+      <c r="L80" t="s">
+        <v>352</v>
+      </c>
+      <c r="M80" t="s">
+        <v>132</v>
+      </c>
+      <c r="N80" t="s">
+        <v>353</v>
+      </c>
+      <c r="O80">
+        <v>559</v>
+      </c>
+      <c r="P80" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>355</v>
+      </c>
+      <c r="R80" t="s">
+        <v>342</v>
+      </c>
+      <c r="S80" t="s">
+        <v>343</v>
+      </c>
+      <c r="T80">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>31109</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>59826</v>
+      </c>
+      <c r="D81" s="1">
+        <v>31109</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>59826</v>
+      </c>
+      <c r="I81">
+        <v>33833</v>
+      </c>
+      <c r="J81">
+        <v>3833</v>
+      </c>
+      <c r="K81">
+        <v>730141548</v>
+      </c>
+      <c r="L81" t="s">
+        <v>332</v>
+      </c>
+      <c r="M81" t="s">
+        <v>333</v>
+      </c>
+      <c r="N81" t="s">
+        <v>334</v>
+      </c>
+      <c r="O81">
+        <v>187</v>
+      </c>
+      <c r="P81" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>357</v>
+      </c>
+      <c r="R81" t="s">
+        <v>358</v>
+      </c>
+      <c r="S81" t="s">
+        <v>55</v>
+      </c>
+      <c r="T81">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>31267</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>57252</v>
+      </c>
+      <c r="D82" s="1">
+        <v>31267</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1">
+        <v>57252</v>
+      </c>
+      <c r="I82">
+        <v>35455</v>
+      </c>
+      <c r="J82">
+        <v>5455</v>
+      </c>
+      <c r="K82">
+        <v>625636435</v>
+      </c>
+      <c r="L82" t="s">
+        <v>359</v>
+      </c>
+      <c r="M82" t="s">
+        <v>114</v>
+      </c>
+      <c r="N82" t="s">
+        <v>360</v>
+      </c>
+      <c r="O82">
+        <v>436</v>
+      </c>
+      <c r="P82" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>362</v>
+      </c>
+      <c r="R82" t="s">
+        <v>342</v>
+      </c>
+      <c r="S82" t="s">
+        <v>343</v>
+      </c>
+      <c r="T82">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <v>31313</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="1">
+        <v>31313</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83">
+        <v>37590</v>
+      </c>
+      <c r="J83">
+        <v>7590</v>
+      </c>
+      <c r="K83">
+        <v>318177758</v>
+      </c>
+      <c r="L83" t="s">
+        <v>332</v>
+      </c>
+      <c r="M83" t="s">
+        <v>333</v>
+      </c>
+      <c r="N83" t="s">
+        <v>334</v>
+      </c>
+      <c r="O83">
+        <v>652</v>
+      </c>
+      <c r="P83" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>364</v>
+      </c>
+      <c r="R83" t="s">
+        <v>365</v>
+      </c>
+      <c r="S83" t="s">
+        <v>366</v>
+      </c>
+      <c r="T83">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>31353</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="1">
+        <v>31353</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <v>31364</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="1">
+        <v>31364</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <v>31737</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="1">
+        <v>31737</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>31762</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="1">
+        <v>31762</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <v>31779</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5">
+        <v>95825</v>
+      </c>
+      <c r="D88" s="1">
+        <v>31779</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>95825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>31784</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>80941</v>
+      </c>
+      <c r="D89" s="1">
+        <v>31784</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <v>31844</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="1">
+        <v>31844</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>31979</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3">
+        <v>58501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <v>31981</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="5">
+        <v>58783</v>
+      </c>
+      <c r="D92" s="1">
+        <v>31981</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>58783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>32080</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="1">
+        <v>32080</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>32094</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3">
+        <v>18415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>32213</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="1">
+        <v>32213</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>32241</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>73663</v>
+      </c>
+      <c r="D96" s="1">
+        <v>32241</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>32466</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="5">
+        <v>37644</v>
+      </c>
+      <c r="D97" s="1">
+        <v>32466</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>37644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>32592</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3">
+        <v>83244</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>32796</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="1">
+        <v>32796</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>32916</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>38577</v>
+      </c>
+      <c r="D100" s="1">
+        <v>32916</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>38577</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>33061</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="1">
+        <v>33061</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>33134</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3">
+        <v>20815</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>33234</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="1">
+        <v>33234</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>33411</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="1">
+        <v>33411</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>33441</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>92514</v>
+      </c>
+      <c r="D105" s="1">
+        <v>33441</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>33949</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>21161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" s="5">
+        <v>34374</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="5">
+        <v>4733</v>
+      </c>
+      <c r="D107" s="1">
+        <v>34374</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>34524</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="1">
+        <v>34524</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>34629</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="1">
+        <v>34629</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="5">
+        <v>34863</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="1">
+        <v>34863</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>34977</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" s="1">
+        <v>34977</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>35058</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="1">
+        <v>35058</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="5">
+        <v>35232</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" s="1">
+        <v>35232</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>35306</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1">
+        <v>26555</v>
+      </c>
+      <c r="D114" s="1">
+        <v>35306</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>26555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <v>35455</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" s="1">
+        <v>35455</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <v>35706</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="1">
+        <v>35706</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>35719</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>16839</v>
+      </c>
+      <c r="D117" s="1">
+        <v>35719</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>36142</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="1">
+        <v>36142</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="5">
+        <v>36279</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="5">
+        <v>27416</v>
+      </c>
+      <c r="D119" s="1">
+        <v>36279</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>27416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>36350</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3">
+        <v>89505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>36478</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="3">
+        <v>66018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="5">
+        <v>36563</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" s="1">
+        <v>36563</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>36706</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="3">
+        <v>68868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="5">
+        <v>36846</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" s="1">
+        <v>36846</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>37074</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3">
+        <v>83714</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="3">
+        <v>37227</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3">
+        <v>85777</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>37274</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="1">
+        <v>37274</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>37282</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D128" s="1">
+        <v>37282</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A129" s="5">
+        <v>37398</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="5">
+        <v>72059</v>
+      </c>
+      <c r="D129" s="1">
+        <v>37398</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>72059</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>37540</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" s="1">
+        <v>37540</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>37680</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="3">
+        <v>59530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>37861</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="3">
+        <v>46783</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>37904</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>58490</v>
+      </c>
+      <c r="D133" s="1">
+        <v>37904</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="1">
+        <v>58490</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>37920</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>95958</v>
+      </c>
+      <c r="D134" s="1">
+        <v>37920</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A135" s="5">
+        <v>38070</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="5">
+        <v>67870</v>
+      </c>
+      <c r="D135" s="1">
+        <v>38070</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>67870</v>
+      </c>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A136" s="5">
+        <v>38167</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" s="1">
+        <v>38167</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>38188</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="3">
+        <v>23964</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A138" s="5">
+        <v>38206</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" s="1">
+        <v>38206</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>38284</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>41184</v>
+      </c>
+      <c r="D139" s="1">
+        <v>38284</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>38482</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1">
+        <v>68817</v>
+      </c>
+      <c r="D140" s="1">
+        <v>38482</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="1">
+        <v>68817</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>38532</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43452</v>
+      </c>
+      <c r="D141" s="1">
+        <v>38532</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="1">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A142" s="5">
+        <v>38552</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="1">
+        <v>38552</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A143" s="5">
+        <v>38652</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143" s="1">
+        <v>38652</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>38794</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="1">
+        <v>38794</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>38883</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" s="1">
+        <v>38883</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>39150</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D146" s="1">
+        <v>39150</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="5">
+        <v>39154</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="5">
+        <v>80922</v>
+      </c>
+      <c r="D147" s="1">
+        <v>39154</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="1">
+        <v>80922</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="5">
+        <v>39190</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="1">
+        <v>39190</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="5">
+        <v>39257</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="1">
+        <v>39257</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>39358</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="1">
+        <v>39358</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>39458</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3">
+        <v>58103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>39625</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1">
+        <v>96765</v>
+      </c>
+      <c r="D152" s="1">
+        <v>39625</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" s="1">
+        <v>96765</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="5">
+        <v>39835</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153" s="1">
+        <v>39835</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="5">
+        <v>39853</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="5">
+        <v>50551</v>
+      </c>
+      <c r="D154" s="1">
+        <v>39853</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" s="1">
+        <v>50551</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>39874</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" s="1">
+        <v>39874</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D1:H161">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120:H153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <v>374</v>
+      </c>
+      <c r="D1" s="1">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>295</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>295</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>322</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1">
+        <v>322</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>702</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>427</v>
+      </c>
+      <c r="D4" s="1">
+        <v>702</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>891</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>738160168</v>
+      </c>
+      <c r="D5" s="1">
+        <v>891</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>738160168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1138</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1138</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1460</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1460</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1671</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1671</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>2373</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2373</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>3219</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>96334</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3219</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>96334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>3384</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3384</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>3511</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3511</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>3590</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3590</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>3878</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>634</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3878</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>3921</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>919</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3921</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>4281</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>649</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4281</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>4498</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4498</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>4629</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4629</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>5105</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5105</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>5166</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19955</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5166</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>5407</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>564</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5407</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>5993</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>561046513</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5993</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>561046513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>6010</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6010</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>6185</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>343</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6185</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>7417</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7417</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>7515</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7515</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>7894</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7894</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>7902</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42406</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7902</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>8212</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>483438704</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8212</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>483438704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>8257</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>978</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8257</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>10665</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>457340183</v>
+      </c>
+      <c r="D31" s="1">
+        <v>10665</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>457340183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>10923</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>240</v>
+      </c>
+      <c r="D32" s="1">
+        <v>10923</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>11938</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>555</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11938</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>11962</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1">
+        <v>11962</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>12601</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3034</v>
+      </c>
+      <c r="D35" s="1">
+        <v>12601</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>13226</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13226</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>13260</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3057</v>
+      </c>
+      <c r="D37" s="1">
+        <v>13260</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>13426</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>13426</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>13650</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>247173463</v>
+      </c>
+      <c r="D39" s="1">
+        <v>13650</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>247173463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>14256</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <v>14256</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>14595</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>14595</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>15043</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>25632</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15043</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>25632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>15193</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>55101</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15193</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>55101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>15479</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15479</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>16464</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
+        <v>16464</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>16666</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1">
+        <v>16666</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>16828</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>170456775</v>
+      </c>
+      <c r="D47" s="1">
+        <v>16828</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>170456775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>17497</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1">
+        <v>17497</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>19726</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1">
+        <v>19726</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>20139</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20139</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>20181</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>713500276</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20181</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>713500276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>20479</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>20479</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>20825</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20825</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>21451</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1">
+        <v>21451</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>22514</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D55" s="1">
+        <v>22514</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>22577</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1">
+        <v>22577</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>22745</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1">
+        <v>22745</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>22825</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1">
+        <v>22825</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>23361</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>23361</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>24248</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>727681570</v>
+      </c>
+      <c r="D60" s="1">
+        <v>24248</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>727681570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>24510</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>646</v>
+      </c>
+      <c r="D61" s="1">
+        <v>24510</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>25517</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>25517</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>26820</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="1">
+        <v>26820</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>27268</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1">
+        <v>27268</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>27453</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1">
+        <v>185</v>
+      </c>
+      <c r="D65" s="1">
+        <v>27453</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>27553</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="1">
+        <v>27553</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>27661</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="1">
+        <v>27661</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>28373</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="1">
+        <v>28373</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>28604</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>281831674</v>
+      </c>
+      <c r="D69" s="1">
+        <v>28604</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
+        <v>281831674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>28756</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>28756</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>28993</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="1">
+        <v>28993</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>29002</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1">
+        <v>29002</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>29236</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="1">
+        <v>29236</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>29409</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="1">
+        <v>29409</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>29622</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="1">
+        <v>29622</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>30502</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="1">
+        <v>30502</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>30788</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>83423</v>
+      </c>
+      <c r="D77" s="1">
+        <v>30788</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>83423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <v>30792</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="1">
+        <v>30792</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>30982</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>26833</v>
+      </c>
+      <c r="D79" s="1">
+        <v>30879</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>31086</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="1">
+        <v>30982</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>26833</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>31109</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>59826</v>
+      </c>
+      <c r="D81" s="1">
+        <v>31086</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>31267</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>57252</v>
+      </c>
+      <c r="D82" s="1">
+        <v>31109</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1">
+        <v>59826</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <v>31313</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="1">
+        <v>31267</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>57252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>31353</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="1">
+        <v>31313</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <v>31364</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="1">
+        <v>31353</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <v>31737</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="1">
+        <v>31364</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>31762</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="1">
+        <v>31737</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <v>31779</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5">
+        <v>95825</v>
+      </c>
+      <c r="D88" s="1">
+        <v>31762</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>31784</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>80941</v>
+      </c>
+      <c r="D89" s="1">
+        <v>31784</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1">
+        <v>80941</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <v>31844</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="1">
+        <v>31844</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>31979</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3">
+        <v>58501</v>
+      </c>
+      <c r="D91" s="1">
+        <v>31979</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>58501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <v>31981</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="5">
+        <v>58783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>32080</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="1">
+        <v>32080</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>32094</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3">
+        <v>18415</v>
+      </c>
+      <c r="D94" s="1">
+        <v>32094</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>18415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>32213</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="1">
+        <v>32213</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>32241</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>73663</v>
+      </c>
+      <c r="D96" s="1">
+        <v>32241</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="1">
+        <v>73663</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>32466</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="5">
+        <v>37644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>32592</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3">
+        <v>83244</v>
+      </c>
+      <c r="D98" s="1">
+        <v>32592</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>83244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>32796</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="1">
+        <v>32796</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>32916</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>38577</v>
+      </c>
+      <c r="D100" s="1">
+        <v>32997</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>33061</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="1">
+        <v>33061</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>33134</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3">
+        <v>20815</v>
+      </c>
+      <c r="D102" s="1">
+        <v>33134</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1">
+        <v>20815</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>33234</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="1">
+        <v>33234</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>33411</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="1">
+        <v>33411</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>33441</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>92514</v>
+      </c>
+      <c r="D105" s="1">
+        <v>33441</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>92514</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>33949</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>21161</v>
+      </c>
+      <c r="D106" s="1">
+        <v>33949</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1">
+        <v>21161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="5">
+        <v>34374</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="5">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>34524</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="1">
+        <v>34524</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>34629</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="1">
+        <v>34629</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="5">
+        <v>34863</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="1">
+        <v>34863</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>34977</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" s="1">
+        <v>34977</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>35058</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="1">
+        <v>35058</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="5">
+        <v>35232</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" s="1">
+        <v>35232</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>35306</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1">
+        <v>26555</v>
+      </c>
+      <c r="D114" s="1">
+        <v>35306</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>26555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <v>35455</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" s="1">
+        <v>35455</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <v>35706</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="1">
+        <v>35706</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>35719</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>16839</v>
+      </c>
+      <c r="D117" s="1">
+        <v>35719</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1">
+        <v>16839</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>36142</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="1">
+        <v>36142</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="5">
+        <v>36279</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="5">
+        <v>27416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>36350</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="3">
+        <v>89505</v>
+      </c>
+      <c r="D120" s="1">
+        <v>36350</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>89505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>36478</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="3">
+        <v>66018</v>
+      </c>
+      <c r="D121" s="1">
+        <v>36478</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="1">
+        <v>66018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="5">
+        <v>36563</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122" s="1">
+        <v>36563</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>36706</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="3">
+        <v>68868</v>
+      </c>
+      <c r="D123" s="1">
+        <v>36706</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="1">
+        <v>68868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="5">
+        <v>36846</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" s="1">
+        <v>36846</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>37074</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3">
+        <v>83714</v>
+      </c>
+      <c r="D125" s="1">
+        <v>37074</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="1">
+        <v>83714</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="3">
+        <v>37227</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3">
+        <v>85777</v>
+      </c>
+      <c r="D126" s="1">
+        <v>37187</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>37274</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="1">
+        <v>37227</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="1">
+        <v>85777</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>37282</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D128" s="1">
+        <v>37274</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="5">
+        <v>37398</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="5">
+        <v>72059</v>
+      </c>
+      <c r="D129" s="1">
+        <v>37282</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>37540</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" s="1">
+        <v>37540</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>37680</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="3">
+        <v>59530</v>
+      </c>
+      <c r="D131" s="1">
+        <v>37680</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="1">
+        <v>59530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>37861</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="3">
+        <v>46783</v>
+      </c>
+      <c r="D132" s="1">
+        <v>37861</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1">
+        <v>46783</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>37904</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>58490</v>
+      </c>
+      <c r="D133" s="1">
+        <v>37904</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="1">
+        <v>58490</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>37920</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>95958</v>
+      </c>
+      <c r="D134" s="1">
+        <v>37920</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="1">
+        <v>95958</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="5">
+        <v>38070</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="5">
+        <v>67870</v>
+      </c>
+      <c r="D135" s="1">
+        <v>37983</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="5">
+        <v>38167</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" s="1">
+        <v>38167</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>38188</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="3">
+        <v>23964</v>
+      </c>
+      <c r="D137" s="1">
+        <v>38188</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" s="1">
+        <v>23964</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="5">
+        <v>38206</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" s="1">
+        <v>38206</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>38284</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>41184</v>
+      </c>
+      <c r="D139" s="1">
+        <v>38284</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>38482</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1">
+        <v>68817</v>
+      </c>
+      <c r="D140" s="1">
+        <v>38482</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="1">
+        <v>68817</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>38532</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="1">
+        <v>43452</v>
+      </c>
+      <c r="D141" s="1">
+        <v>38532</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="1">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="5">
+        <v>38552</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="1">
+        <v>38552</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="5">
+        <v>38652</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143" s="1">
+        <v>38652</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>38794</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="1">
+        <v>38794</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>38883</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" s="1">
+        <v>38883</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>39150</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D146" s="1">
+        <v>39150</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="5">
+        <v>39154</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="5">
+        <v>80922</v>
+      </c>
+      <c r="D147" s="1">
+        <v>39190</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="5">
+        <v>39190</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="1">
+        <v>39257</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="5">
+        <v>39257</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="1">
+        <v>39358</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>39358</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="1">
+        <v>39458</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" s="1">
+        <v>58103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>39458</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3">
+        <v>58103</v>
+      </c>
+      <c r="D151" s="1">
+        <v>39625</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" s="1">
+        <v>96765</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>39625</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="1">
+        <v>96765</v>
+      </c>
+      <c r="D152" s="1">
+        <v>39835</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="5">
+        <v>39835</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153" s="1">
+        <v>39874</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="5">
+        <v>39853</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="5">
+        <v>50551</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>39874</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D1:H154">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/Truth-easy-compare.xlsx
+++ b/input/Truth-easy-compare.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="370">
   <si>
     <t>FNAME</t>
   </si>
@@ -1025,6 +1025,12 @@
     <t>7r6</t>
   </si>
   <si>
+    <t>8p1</t>
+  </si>
+  <si>
+    <t>6f2</t>
+  </si>
+  <si>
     <t>Mespelt</t>
   </si>
   <si>
@@ -1128,13 +1134,16 @@
   </si>
   <si>
     <t>IN</t>
+  </si>
+  <si>
+    <t>GU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1145,6 +1154,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1174,10 +1201,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,9 +1225,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -6859,25 +6893,25 @@
         <v>461155587</v>
       </c>
       <c r="L76" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M76" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N76" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O76">
         <v>406</v>
       </c>
       <c r="P76" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q76" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="R76" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="S76" t="s">
         <v>155</v>
@@ -6915,28 +6949,28 @@
         <v>187055443</v>
       </c>
       <c r="L77" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M77" t="s">
         <v>110</v>
       </c>
       <c r="N77" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O77">
         <v>162</v>
       </c>
       <c r="P77" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q77" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R77" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="S77" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T77">
         <v>2833</v>
@@ -6971,28 +7005,28 @@
         <v>340770261</v>
       </c>
       <c r="L78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M78" t="s">
         <v>128</v>
       </c>
       <c r="N78" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O78">
         <v>830</v>
       </c>
       <c r="P78" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q78" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="R78" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="S78" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T78">
         <v>2833</v>
@@ -7027,28 +7061,28 @@
         <v>372135127</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O79">
         <v>189</v>
       </c>
       <c r="P79" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q79" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="R79" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="S79" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T79">
         <v>2833</v>
@@ -7083,28 +7117,28 @@
         <v>415522283</v>
       </c>
       <c r="L80" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M80" t="s">
         <v>132</v>
       </c>
       <c r="N80" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O80">
         <v>559</v>
       </c>
       <c r="P80" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q80" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="R80" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="S80" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T80">
         <v>2833</v>
@@ -7139,25 +7173,25 @@
         <v>730141548</v>
       </c>
       <c r="L81" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M81" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N81" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O81">
         <v>187</v>
       </c>
       <c r="P81" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q81" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="R81" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="S81" t="s">
         <v>55</v>
@@ -7195,28 +7229,28 @@
         <v>625636435</v>
       </c>
       <c r="L82" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M82" t="s">
         <v>114</v>
       </c>
       <c r="N82" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O82">
         <v>436</v>
       </c>
       <c r="P82" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q82" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R82" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="S82" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T82">
         <v>2833</v>
@@ -7251,28 +7285,28 @@
         <v>318177758</v>
       </c>
       <c r="L83" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M83" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N83" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O83">
         <v>652</v>
       </c>
       <c r="P83" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q83" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="R83" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="S83" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="T83">
         <v>2833</v>
@@ -8618,10 +8652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120:H153"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8632,13 +8666,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
+      <c r="A1" s="5">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="5">
         <v>374</v>
       </c>
       <c r="D1" s="1">
@@ -8652,13 +8686,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>295</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="1">
@@ -8675,13 +8709,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>322</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="1">
@@ -8695,13 +8729,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>702</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="5">
         <v>427</v>
       </c>
       <c r="D4" s="1">
@@ -8715,13 +8749,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>891</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>738160168</v>
       </c>
       <c r="D5" s="1">
@@ -8735,13 +8769,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>1138</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1">
@@ -8755,13 +8789,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>1460</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1">
@@ -8775,13 +8809,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1671</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1">
@@ -8795,13 +8829,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>2373</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="1">
@@ -8815,13 +8849,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>3219</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
         <v>96334</v>
       </c>
       <c r="D10" s="1">
@@ -8835,13 +8869,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>3384</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1">
@@ -8855,13 +8889,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>3511</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1">
@@ -8875,13 +8909,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>3590</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="1">
@@ -8895,13 +8929,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>3878</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
         <v>634</v>
       </c>
       <c r="D14" s="1">
@@ -8915,13 +8949,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>3921</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
         <v>919</v>
       </c>
       <c r="D15" s="1">
@@ -8935,13 +8969,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>4281</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>649</v>
       </c>
       <c r="D16" s="1">
@@ -8955,13 +8989,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>4498</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="1">
@@ -8975,13 +9009,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>4629</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="1">
@@ -8995,13 +9029,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>5105</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1">
@@ -9015,13 +9049,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>5166</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
         <v>19955</v>
       </c>
       <c r="D20" s="1">
@@ -9035,13 +9069,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>5407</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>564</v>
       </c>
       <c r="D21" s="1">
@@ -9055,13 +9089,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>5993</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>561046513</v>
       </c>
       <c r="D22" s="1">
@@ -9075,13 +9109,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>6010</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1">
@@ -9095,13 +9129,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>6185</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>343</v>
       </c>
       <c r="D24" s="1">
@@ -9115,13 +9149,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>7417</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1">
@@ -9135,13 +9169,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
         <v>7515</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1">
@@ -9155,13 +9189,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>7894</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1">
@@ -9175,13 +9209,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
         <v>7902</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
         <v>42406</v>
       </c>
       <c r="D28" s="1">
@@ -9195,13 +9229,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+      <c r="A29" s="5">
         <v>8212</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>483438704</v>
       </c>
       <c r="D29" s="1">
@@ -9215,13 +9249,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>8257</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <v>978</v>
       </c>
       <c r="D30" s="1">
@@ -9235,13 +9269,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
+      <c r="A31" s="5">
         <v>10665</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <v>457340183</v>
       </c>
       <c r="D31" s="1">
@@ -9255,13 +9289,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>10923</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <v>240</v>
       </c>
       <c r="D32" s="1">
@@ -9275,13 +9309,13 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+      <c r="A33" s="5">
         <v>11938</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>555</v>
       </c>
       <c r="D33" s="1">
@@ -9295,13 +9329,13 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
+      <c r="A34" s="5">
         <v>11962</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="1">
@@ -9315,13 +9349,13 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+      <c r="A35" s="5">
         <v>12601</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
         <v>3034</v>
       </c>
       <c r="D35" s="1">
@@ -9335,13 +9369,13 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="1">
+      <c r="A36" s="5">
         <v>13226</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="1">
@@ -9355,13 +9389,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
+      <c r="A37" s="5">
         <v>13260</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
         <v>3057</v>
       </c>
       <c r="D37" s="1">
@@ -9375,13 +9409,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
+      <c r="A38" s="5">
         <v>13426</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="1">
@@ -9395,13 +9429,13 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
+      <c r="A39" s="5">
         <v>13650</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5">
         <v>247173463</v>
       </c>
       <c r="D39" s="1">
@@ -9415,13 +9449,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="1">
+      <c r="A40" s="5">
         <v>14256</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="1">
@@ -9441,13 +9475,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+      <c r="A41" s="5">
         <v>14595</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="1">
@@ -9461,13 +9495,13 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1">
+      <c r="A42" s="5">
         <v>15043</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
         <v>25632</v>
       </c>
       <c r="D42" s="1">
@@ -9481,13 +9515,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
+      <c r="A43" s="5">
         <v>15193</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5">
         <v>55101</v>
       </c>
       <c r="D43" s="1">
@@ -9501,13 +9535,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+      <c r="A44" s="5">
         <v>15479</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="1">
@@ -9521,13 +9555,13 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
+      <c r="A45" s="5">
         <v>16464</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="1">
@@ -9541,13 +9575,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="1">
+      <c r="A46" s="5">
         <v>16666</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1">
@@ -9561,13 +9595,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
+      <c r="A47" s="5">
         <v>16828</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="5">
         <v>170456775</v>
       </c>
       <c r="D47" s="1">
@@ -9581,13 +9615,13 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="1">
+      <c r="A48" s="5">
         <v>17497</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="1">
@@ -9600,14 +9634,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
         <v>19726</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="1">
@@ -9620,14 +9654,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
         <v>20139</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="1">
@@ -9640,14 +9674,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
         <v>20181</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="5">
         <v>713500276</v>
       </c>
       <c r="D51" s="1">
@@ -9660,14 +9694,14 @@
         <v>713500276</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
         <v>20479</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="1">
@@ -9680,14 +9714,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
         <v>20825</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="1">
@@ -9700,14 +9734,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
         <v>21451</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="1">
@@ -9719,15 +9753,24 @@
       <c r="F54" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="1">
+      <c r="I54" s="1">
+        <v>20984</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>62536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
         <v>22514</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1">
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5">
         <v>1984</v>
       </c>
       <c r="D55" s="1">
@@ -9739,15 +9782,24 @@
       <c r="F55" s="1">
         <v>1984</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+      <c r="I55" s="1">
+        <v>20985</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>62536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
         <v>22577</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="1">
@@ -9759,15 +9811,24 @@
       <c r="F56" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
+      <c r="I56" s="1">
+        <v>20986</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="1">
+        <v>62536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
         <v>22745</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="1">
@@ -9780,14 +9841,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="1">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
         <v>22825</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="1">
@@ -9800,14 +9861,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
         <v>23361</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5">
         <v>0</v>
       </c>
       <c r="D59" s="1">
@@ -9820,14 +9881,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="1">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
         <v>24248</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>727681570</v>
       </c>
       <c r="D60" s="1">
@@ -9840,14 +9901,14 @@
         <v>727681570</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="1">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
         <v>24510</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5">
         <v>646</v>
       </c>
       <c r="D61" s="1">
@@ -9860,14 +9921,14 @@
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
         <v>25517</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="1">
@@ -9880,14 +9941,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
         <v>26820</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D63" s="1">
@@ -9903,14 +9964,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="1">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
         <v>27268</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="1">
@@ -9923,14 +9984,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
         <v>27453</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="5">
         <v>185</v>
       </c>
       <c r="D65" s="1">
@@ -9943,14 +10004,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="5">
         <v>27553</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D66" s="1">
@@ -9963,14 +10024,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="5">
         <v>27661</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="1">
@@ -9983,14 +10044,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="5">
         <v>28373</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="1">
@@ -10006,14 +10067,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="5">
         <v>28604</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="5">
         <v>281831674</v>
       </c>
       <c r="D69" s="1">
@@ -10026,14 +10087,14 @@
         <v>281831674</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="5">
         <v>28756</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="1">
@@ -10046,14 +10107,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="5">
         <v>28993</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="1">
@@ -10066,14 +10127,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="5">
         <v>29002</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="1">
@@ -10086,14 +10147,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="5">
         <v>29236</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="1">
@@ -10106,14 +10167,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="5">
         <v>29409</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D74" s="1">
@@ -10126,14 +10187,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="5">
         <v>29622</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D75" s="1">
@@ -10146,14 +10207,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="5">
         <v>30502</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="B76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D76" s="1">
@@ -10166,14 +10227,14 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="5">
         <v>30788</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="B77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5">
         <v>83423</v>
       </c>
       <c r="D77" s="1">
@@ -10186,7 +10247,7 @@
         <v>83423</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>30792</v>
       </c>
@@ -10206,87 +10267,96 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="5">
         <v>30982</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="1">
+      <c r="B79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5">
         <v>26833</v>
       </c>
       <c r="D79" s="1">
+        <v>30982</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>26833</v>
+      </c>
+      <c r="I79" s="1">
         <v>30879</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="J79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="5">
         <v>31086</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D80" s="1">
-        <v>30982</v>
+        <v>31086</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="1">
-        <v>26833</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
+        <v>18</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="5">
         <v>31109</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="1">
+      <c r="B81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5">
         <v>59826</v>
       </c>
       <c r="D81" s="1">
-        <v>31086</v>
+        <v>31109</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>59826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="5">
         <v>31267</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="1">
+      <c r="B82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="5">
         <v>57252</v>
       </c>
       <c r="D82" s="1">
-        <v>31109</v>
+        <v>31267</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="1">
-        <v>59826</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+        <v>57252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>31313</v>
       </c>
@@ -10297,36 +10367,36 @@
         <v>23</v>
       </c>
       <c r="D83" s="1">
-        <v>31267</v>
+        <v>31313</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="1">
-        <v>57252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+        <v>22</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="5">
         <v>31353</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>31313</v>
+        <v>31353</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>31364</v>
       </c>
@@ -10337,16 +10407,16 @@
         <v>58</v>
       </c>
       <c r="D85" s="1">
-        <v>31353</v>
+        <v>31364</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>31737</v>
       </c>
@@ -10357,36 +10427,36 @@
         <v>69</v>
       </c>
       <c r="D86" s="1">
-        <v>31364</v>
+        <v>31737</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="5">
         <v>31762</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D87" s="1">
-        <v>31737</v>
+        <v>31762</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>31779</v>
       </c>
@@ -10396,24 +10466,24 @@
       <c r="C88" s="5">
         <v>95825</v>
       </c>
-      <c r="D88" s="1">
-        <v>31762</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
+      <c r="D88" s="5">
+        <v>31779</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="5">
+        <v>95825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
         <v>31784</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="5">
         <v>80941</v>
       </c>
       <c r="D89" s="1">
@@ -10426,7 +10496,7 @@
         <v>80941</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>31844</v>
       </c>
@@ -10446,14 +10516,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
         <v>31979</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="B91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="5">
         <v>58501</v>
       </c>
       <c r="D91" s="1">
@@ -10466,7 +10536,7 @@
         <v>58501</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>31981</v>
       </c>
@@ -10476,8 +10546,17 @@
       <c r="C92" s="5">
         <v>58783</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D92" s="1">
+        <v>31981</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>58783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>32080</v>
       </c>
@@ -10497,14 +10576,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
         <v>32094</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="B94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5">
         <v>18415</v>
       </c>
       <c r="D94" s="1">
@@ -10517,7 +10596,7 @@
         <v>18415</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>32213</v>
       </c>
@@ -10537,14 +10616,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
         <v>32241</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1">
+      <c r="B96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="5">
         <v>73663</v>
       </c>
       <c r="D96" s="1">
@@ -10556,8 +10635,17 @@
       <c r="F96" s="1">
         <v>73663</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I96" s="1">
+        <v>32235</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>32466</v>
       </c>
@@ -10567,15 +10655,24 @@
       <c r="C97" s="5">
         <v>37644</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="3">
+      <c r="D97" s="1">
+        <v>32466</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>37644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
         <v>32592</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="B98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="5">
         <v>83244</v>
       </c>
       <c r="D98" s="1">
@@ -10588,14 +10685,14 @@
         <v>83244</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
         <v>32796</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D99" s="1">
@@ -10608,7 +10705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>32916</v>
       </c>
@@ -10619,23 +10716,23 @@
         <v>38577</v>
       </c>
       <c r="D100" s="1">
-        <v>32997</v>
+        <v>32916</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>38577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
         <v>33061</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D101" s="1">
@@ -10647,15 +10744,24 @@
       <c r="F101" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="3">
+      <c r="I101" s="1">
+        <v>32997</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
         <v>33134</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="3">
+      <c r="B102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="5">
         <v>20815</v>
       </c>
       <c r="D102" s="1">
@@ -10668,7 +10774,7 @@
         <v>20815</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>33234</v>
       </c>
@@ -10688,14 +10794,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="5">
         <v>33411</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D104" s="1">
@@ -10708,14 +10814,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="5">
         <v>33441</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="1">
+      <c r="B105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="5">
         <v>92514</v>
       </c>
       <c r="D105" s="1">
@@ -10728,14 +10834,14 @@
         <v>92514</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="5">
         <v>33949</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="3">
+      <c r="B106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="5">
         <v>21161</v>
       </c>
       <c r="D106" s="1">
@@ -10748,7 +10854,7 @@
         <v>21161</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>34374</v>
       </c>
@@ -10758,15 +10864,24 @@
       <c r="C107" s="5">
         <v>4733</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
+      <c r="D107" s="1">
+        <v>34374</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A108" s="5">
         <v>34524</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D108" s="1">
@@ -10778,15 +10893,24 @@
       <c r="F108" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
+      <c r="I108" s="1">
+        <v>34395</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="5">
         <v>34629</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D109" s="1">
@@ -10798,8 +10922,17 @@
       <c r="F109" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I109" s="1">
+        <v>34498</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>34863</v>
       </c>
@@ -10818,15 +10951,24 @@
       <c r="F110" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="1">
+      <c r="I110" s="1">
+        <v>34498</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" s="5">
         <v>34977</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D111" s="1">
@@ -10839,14 +10981,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A112" s="5">
         <v>35058</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="B112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D112" s="1">
@@ -10859,7 +11001,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>35232</v>
       </c>
@@ -10879,14 +11021,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A114" s="5">
         <v>35306</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="1">
+      <c r="B114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="5">
         <v>26555</v>
       </c>
       <c r="D114" s="1">
@@ -10899,7 +11041,7 @@
         <v>26555</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>35455</v>
       </c>
@@ -10919,7 +11061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>35706</v>
       </c>
@@ -10939,14 +11081,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="1">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A117" s="5">
         <v>35719</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="1">
+      <c r="B117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="5">
         <v>16839</v>
       </c>
       <c r="D117" s="1">
@@ -10959,14 +11101,14 @@
         <v>16839</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A118" s="5">
         <v>36142</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="B118" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D118" s="1">
@@ -10979,7 +11121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>36279</v>
       </c>
@@ -10989,15 +11131,24 @@
       <c r="C119" s="5">
         <v>27416</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="3">
+      <c r="D119" s="1">
+        <v>36279</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>27416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A120" s="5">
         <v>36350</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="3">
+      <c r="B120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="5">
         <v>89505</v>
       </c>
       <c r="D120" s="1">
@@ -11010,14 +11161,14 @@
         <v>89505</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A121" s="5">
         <v>36478</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="B121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="5">
         <v>66018</v>
       </c>
       <c r="D121" s="1">
@@ -11030,7 +11181,7 @@
         <v>66018</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>36563</v>
       </c>
@@ -11050,14 +11201,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A123" s="5">
         <v>36706</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="3">
+      <c r="B123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="5">
         <v>68868</v>
       </c>
       <c r="D123" s="1">
@@ -11070,7 +11221,7 @@
         <v>68868</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>36846</v>
       </c>
@@ -11090,14 +11241,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A125" s="5">
         <v>37074</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="3">
+      <c r="B125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="5">
         <v>83714</v>
       </c>
       <c r="D125" s="1">
@@ -11110,67 +11261,76 @@
         <v>83714</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A126" s="5">
         <v>37227</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="3">
+      <c r="B126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="5">
         <v>85777</v>
       </c>
       <c r="D126" s="1">
+        <v>37227</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>85777</v>
+      </c>
+      <c r="I126" s="1">
         <v>37187</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="J126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="1">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A127" s="5">
         <v>37274</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D127" s="1">
-        <v>37227</v>
+        <v>37274</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" s="1">
-        <v>85777</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="1">
+        <v>18</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A128" s="5">
         <v>37282</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D128" s="1">
-        <v>37274</v>
+        <v>37282</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>37398</v>
       </c>
@@ -11181,23 +11341,23 @@
         <v>72059</v>
       </c>
       <c r="D129" s="1">
-        <v>37282</v>
+        <v>37398</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="1">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>72059</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A130" s="5">
         <v>37540</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B130" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D130" s="1">
@@ -11210,14 +11370,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A131" s="5">
         <v>37680</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="3">
+      <c r="B131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="5">
         <v>59530</v>
       </c>
       <c r="D131" s="1">
@@ -11230,14 +11390,14 @@
         <v>59530</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A132" s="5">
         <v>37861</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="3">
+      <c r="B132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="5">
         <v>46783</v>
       </c>
       <c r="D132" s="1">
@@ -11250,14 +11410,14 @@
         <v>46783</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="1">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A133" s="5">
         <v>37904</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="1">
+      <c r="B133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="5">
         <v>58490</v>
       </c>
       <c r="D133" s="1">
@@ -11270,14 +11430,14 @@
         <v>58490</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="1">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A134" s="5">
         <v>37920</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="1">
+      <c r="B134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="5">
         <v>95958</v>
       </c>
       <c r="D134" s="1">
@@ -11286,11 +11446,11 @@
       <c r="E134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F134" s="1">
-        <v>95958</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F134" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>38070</v>
       </c>
@@ -11301,16 +11461,25 @@
         <v>67870</v>
       </c>
       <c r="D135" s="1">
+        <v>38070</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>67870</v>
+      </c>
+      <c r="I135" s="1">
         <v>37983</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="J135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>38167</v>
       </c>
@@ -11330,14 +11499,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A137" s="5">
         <v>38188</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" s="3">
+      <c r="B137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="5">
         <v>23964</v>
       </c>
       <c r="D137" s="1">
@@ -11350,7 +11519,7 @@
         <v>23964</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>38206</v>
       </c>
@@ -11370,14 +11539,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="1">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A139" s="5">
         <v>38284</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="1">
+      <c r="B139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="5">
         <v>41184</v>
       </c>
       <c r="D139" s="1">
@@ -11390,14 +11559,14 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="1">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A140" s="5">
         <v>38482</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" s="1">
+      <c r="B140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="5">
         <v>68817</v>
       </c>
       <c r="D140" s="1">
@@ -11410,14 +11579,14 @@
         <v>68817</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="1">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A141" s="5">
         <v>38532</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" s="1">
+      <c r="B141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="5">
         <v>43452</v>
       </c>
       <c r="D141" s="1">
@@ -11430,7 +11599,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>38552</v>
       </c>
@@ -11450,7 +11619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>38652</v>
       </c>
@@ -11470,14 +11639,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="1">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A144" s="5">
         <v>38794</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="B144" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D144" s="1">
@@ -11491,13 +11660,13 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="1">
+      <c r="A145" s="5">
         <v>38883</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B145" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D145" s="1">
@@ -11511,13 +11680,13 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="1">
+      <c r="A146" s="5">
         <v>39150</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D146" s="1">
@@ -11541,13 +11710,13 @@
         <v>80922</v>
       </c>
       <c r="D147" s="1">
-        <v>39190</v>
+        <v>39154</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="F147" s="1">
+        <v>80922</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
@@ -11561,13 +11730,13 @@
         <v>55</v>
       </c>
       <c r="D148" s="1">
-        <v>39257</v>
+        <v>39190</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -11581,73 +11750,73 @@
         <v>54</v>
       </c>
       <c r="D149" s="1">
+        <v>39257</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="5">
         <v>39358</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="B150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="1">
+      <c r="D150" s="1">
         <v>39358</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="E150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D150" s="1">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="5">
         <v>39458</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" s="1">
+      <c r="B151" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="5">
         <v>58103</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="3">
+      <c r="D151" s="1">
         <v>39458</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="3">
+      <c r="E151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" s="1">
         <v>58103</v>
       </c>
-      <c r="D151" s="1">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="5">
         <v>39625</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" s="1">
+      <c r="B152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="5">
         <v>96765</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="1">
+      <c r="D152" s="1">
         <v>39625</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="1">
+      <c r="E152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" s="1">
         <v>96765</v>
-      </c>
-      <c r="D152" s="1">
-        <v>39835</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
@@ -11661,13 +11830,13 @@
         <v>75</v>
       </c>
       <c r="D153" s="1">
-        <v>39874</v>
+        <v>39835</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
@@ -11680,20 +11849,38 @@
       <c r="C154" s="5">
         <v>50551</v>
       </c>
+      <c r="D154" s="1">
+        <v>39853</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" s="1">
+        <v>50551</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="1">
+      <c r="A155" s="5">
         <v>39874</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="B155" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="D155" s="1">
+        <v>39874</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="D1:H154">
+  <sortState ref="D1:H164">
     <sortCondition ref="D1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/input/Truth-easy-compare.xlsx
+++ b/input/Truth-easy-compare.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="443">
   <si>
     <t>FNAME</t>
   </si>
@@ -1031,6 +1031,12 @@
     <t>6f2</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>Mespelt</t>
   </si>
   <si>
@@ -1137,6 +1143,219 @@
   </si>
   <si>
     <t>GU</t>
+  </si>
+  <si>
+    <t>Scss</t>
+  </si>
+  <si>
+    <t>Iwicki</t>
+  </si>
+  <si>
+    <t>Marmen Rd</t>
+  </si>
+  <si>
+    <t>1s4</t>
+  </si>
+  <si>
+    <t>Thurman</t>
+  </si>
+  <si>
+    <t>Elleke</t>
+  </si>
+  <si>
+    <t>Paliwal</t>
+  </si>
+  <si>
+    <t>Nagarajan Road</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Groves</t>
+  </si>
+  <si>
+    <t>Vadi</t>
+  </si>
+  <si>
+    <t>Loxton Street</t>
+  </si>
+  <si>
+    <t>Wessington</t>
+  </si>
+  <si>
+    <t>Belarmiho</t>
+  </si>
+  <si>
+    <t>Ocolmain</t>
+  </si>
+  <si>
+    <t>Virge Pkwy</t>
+  </si>
+  <si>
+    <t>Kosrae</t>
+  </si>
+  <si>
+    <t>Mendi</t>
+  </si>
+  <si>
+    <t>Gatto</t>
+  </si>
+  <si>
+    <t>Bayazit St</t>
+  </si>
+  <si>
+    <t>FPO San Francisco</t>
+  </si>
+  <si>
+    <t>Grzeskowiak</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Barriga</t>
+  </si>
+  <si>
+    <t>Isah Street</t>
+  </si>
+  <si>
+    <t>Barnardsville</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Marshman</t>
+  </si>
+  <si>
+    <t>Ito</t>
+  </si>
+  <si>
+    <t>Sibella Street</t>
+  </si>
+  <si>
+    <t>Edinburg</t>
+  </si>
+  <si>
+    <t>Sze</t>
+  </si>
+  <si>
+    <t>Zoel</t>
+  </si>
+  <si>
+    <t>Dewald St</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Vasudeva</t>
+  </si>
+  <si>
+    <t>Newburgh</t>
+  </si>
+  <si>
+    <t>Yasunao</t>
+  </si>
+  <si>
+    <t>Mansor</t>
+  </si>
+  <si>
+    <t>Patrizia Ave</t>
+  </si>
+  <si>
+    <t>Veteran</t>
+  </si>
+  <si>
+    <t>Chem</t>
+  </si>
+  <si>
+    <t>Guth</t>
+  </si>
+  <si>
+    <t>Reddington St</t>
+  </si>
+  <si>
+    <t>Barrington</t>
+  </si>
+  <si>
+    <t>Ssington</t>
+  </si>
+  <si>
+    <t>Niitani</t>
+  </si>
+  <si>
+    <t>Mcaskill Ln</t>
+  </si>
+  <si>
+    <t>Topeka</t>
+  </si>
+  <si>
+    <t>Lutan</t>
+  </si>
+  <si>
+    <t>Hershel</t>
+  </si>
+  <si>
+    <t>Israni</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Fredimos</t>
+  </si>
+  <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Razmi Ln</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Knappe</t>
+  </si>
+  <si>
+    <t>Hiver</t>
+  </si>
+  <si>
+    <t>Bonneau Street</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>Tamiya</t>
+  </si>
+  <si>
+    <t>Yahia</t>
+  </si>
+  <si>
+    <t>Bambo Avenue</t>
+  </si>
+  <si>
+    <t>Plattsmouth</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Schielke</t>
+  </si>
+  <si>
+    <t>Lar</t>
+  </si>
+  <si>
+    <t>Roide Road</t>
+  </si>
+  <si>
+    <t>Linn Creek</t>
   </si>
 </sst>
 </file>
@@ -6893,25 +7112,25 @@
         <v>461155587</v>
       </c>
       <c r="L76" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M76" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N76" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O76">
         <v>406</v>
       </c>
       <c r="P76" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q76" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="R76" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="S76" t="s">
         <v>155</v>
@@ -6949,28 +7168,28 @@
         <v>187055443</v>
       </c>
       <c r="L77" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M77" t="s">
         <v>110</v>
       </c>
       <c r="N77" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O77">
         <v>162</v>
       </c>
       <c r="P77" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q77" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="R77" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="S77" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T77">
         <v>2833</v>
@@ -7005,28 +7224,28 @@
         <v>340770261</v>
       </c>
       <c r="L78" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M78" t="s">
         <v>128</v>
       </c>
       <c r="N78" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O78">
         <v>830</v>
       </c>
       <c r="P78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q78" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="R78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="S78" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T78">
         <v>2833</v>
@@ -7061,28 +7280,28 @@
         <v>372135127</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O79">
         <v>189</v>
       </c>
       <c r="P79" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q79" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="R79" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="S79" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T79">
         <v>2833</v>
@@ -7117,28 +7336,28 @@
         <v>415522283</v>
       </c>
       <c r="L80" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M80" t="s">
         <v>132</v>
       </c>
       <c r="N80" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O80">
         <v>559</v>
       </c>
       <c r="P80" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q80" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="R80" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="S80" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T80">
         <v>2833</v>
@@ -7173,25 +7392,25 @@
         <v>730141548</v>
       </c>
       <c r="L81" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M81" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N81" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O81">
         <v>187</v>
       </c>
       <c r="P81" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q81" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="R81" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="S81" t="s">
         <v>55</v>
@@ -7229,28 +7448,28 @@
         <v>625636435</v>
       </c>
       <c r="L82" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M82" t="s">
         <v>114</v>
       </c>
       <c r="N82" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O82">
         <v>436</v>
       </c>
       <c r="P82" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q82" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="R82" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="S82" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T82">
         <v>2833</v>
@@ -7285,28 +7504,28 @@
         <v>318177758</v>
       </c>
       <c r="L83" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M83" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N83" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O83">
         <v>652</v>
       </c>
       <c r="P83" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q83" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="R83" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="S83" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="T83">
         <v>2833</v>
@@ -8652,10 +8871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9753,15 +9972,8 @@
       <c r="F54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="1">
-        <v>20984</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="1">
-        <v>62536</v>
-      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
@@ -9782,15 +9994,8 @@
       <c r="F55" s="1">
         <v>1984</v>
       </c>
-      <c r="I55" s="1">
-        <v>20985</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K55" s="1">
-        <v>62536</v>
-      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
@@ -9811,15 +10016,8 @@
       <c r="F56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I56" s="1">
-        <v>20986</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K56" s="1">
-        <v>62536</v>
-      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
@@ -10900,7 +11098,7 @@
         <v>22</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
@@ -10929,7 +11127,7 @@
         <v>22</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
@@ -11330,7 +11528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>37398</v>
       </c>
@@ -11350,7 +11548,7 @@
         <v>72059</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>37540</v>
       </c>
@@ -11370,7 +11568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>37680</v>
       </c>
@@ -11390,7 +11588,7 @@
         <v>59530</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>37861</v>
       </c>
@@ -11410,7 +11608,7 @@
         <v>46783</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>37904</v>
       </c>
@@ -11430,7 +11628,7 @@
         <v>58490</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>37920</v>
       </c>
@@ -11450,7 +11648,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>38070</v>
       </c>
@@ -11479,7 +11677,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>38167</v>
       </c>
@@ -11498,8 +11696,44 @@
       <c r="F136" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I136" s="1">
+        <v>37983</v>
+      </c>
+      <c r="J136">
+        <v>7983</v>
+      </c>
+      <c r="K136">
+        <v>523864372</v>
+      </c>
+      <c r="L136" t="s">
+        <v>372</v>
+      </c>
+      <c r="M136" t="s">
+        <v>104</v>
+      </c>
+      <c r="N136" t="s">
+        <v>373</v>
+      </c>
+      <c r="O136">
+        <v>201</v>
+      </c>
+      <c r="P136" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>375</v>
+      </c>
+      <c r="R136" t="s">
+        <v>376</v>
+      </c>
+      <c r="S136" t="s">
+        <v>54</v>
+      </c>
+      <c r="T136">
+        <v>38477</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>38188</v>
       </c>
@@ -11518,8 +11752,44 @@
       <c r="F137" s="1">
         <v>23964</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I137" s="1">
+        <v>10840</v>
+      </c>
+      <c r="J137">
+        <v>52737</v>
+      </c>
+      <c r="K137">
+        <v>616706161</v>
+      </c>
+      <c r="L137" t="s">
+        <v>377</v>
+      </c>
+      <c r="M137" t="s">
+        <v>121</v>
+      </c>
+      <c r="N137" t="s">
+        <v>378</v>
+      </c>
+      <c r="O137">
+        <v>601</v>
+      </c>
+      <c r="P137" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>329</v>
+      </c>
+      <c r="R137" t="s">
+        <v>380</v>
+      </c>
+      <c r="S137" t="s">
+        <v>381</v>
+      </c>
+      <c r="T137">
+        <v>24565</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>38206</v>
       </c>
@@ -11538,8 +11808,44 @@
       <c r="F138" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I138" s="1">
+        <v>11746</v>
+      </c>
+      <c r="J138">
+        <v>52959</v>
+      </c>
+      <c r="K138">
+        <v>524253815</v>
+      </c>
+      <c r="L138" t="s">
+        <v>382</v>
+      </c>
+      <c r="M138" t="s">
+        <v>28</v>
+      </c>
+      <c r="N138" t="s">
+        <v>383</v>
+      </c>
+      <c r="O138">
+        <v>17</v>
+      </c>
+      <c r="P138" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>329</v>
+      </c>
+      <c r="R138" t="s">
+        <v>385</v>
+      </c>
+      <c r="S138" t="s">
+        <v>155</v>
+      </c>
+      <c r="T138">
+        <v>57381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>38284</v>
       </c>
@@ -11558,8 +11864,44 @@
       <c r="F139" s="1">
         <v>41184</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I139" s="1">
+        <v>20099</v>
+      </c>
+      <c r="J139">
+        <v>55036</v>
+      </c>
+      <c r="K139">
+        <v>143645867</v>
+      </c>
+      <c r="L139" t="s">
+        <v>386</v>
+      </c>
+      <c r="M139" t="s">
+        <v>132</v>
+      </c>
+      <c r="N139" t="s">
+        <v>387</v>
+      </c>
+      <c r="O139">
+        <v>757</v>
+      </c>
+      <c r="P139" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>329</v>
+      </c>
+      <c r="R139" t="s">
+        <v>389</v>
+      </c>
+      <c r="S139" t="s">
+        <v>57</v>
+      </c>
+      <c r="T139">
+        <v>96944</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>38482</v>
       </c>
@@ -11578,8 +11920,44 @@
       <c r="F140" s="1">
         <v>68817</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I140" s="1">
+        <v>23869</v>
+      </c>
+      <c r="J140">
+        <v>55978</v>
+      </c>
+      <c r="K140">
+        <v>463666032</v>
+      </c>
+      <c r="L140" t="s">
+        <v>390</v>
+      </c>
+      <c r="M140" t="s">
+        <v>28</v>
+      </c>
+      <c r="N140" t="s">
+        <v>391</v>
+      </c>
+      <c r="O140">
+        <v>932</v>
+      </c>
+      <c r="P140" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>329</v>
+      </c>
+      <c r="R140" t="s">
+        <v>393</v>
+      </c>
+      <c r="S140" t="s">
+        <v>371</v>
+      </c>
+      <c r="T140">
+        <v>96630</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>38532</v>
       </c>
@@ -11598,8 +11976,44 @@
       <c r="F141" s="1">
         <v>43452</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I141" s="1">
+        <v>27784</v>
+      </c>
+      <c r="J141">
+        <v>56950</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>394</v>
+      </c>
+      <c r="M141" t="s">
+        <v>395</v>
+      </c>
+      <c r="N141" t="s">
+        <v>396</v>
+      </c>
+      <c r="O141">
+        <v>102</v>
+      </c>
+      <c r="P141" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>329</v>
+      </c>
+      <c r="R141" t="s">
+        <v>398</v>
+      </c>
+      <c r="S141" t="s">
+        <v>399</v>
+      </c>
+      <c r="T141">
+        <v>28709</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>38552</v>
       </c>
@@ -11618,8 +12032,44 @@
       <c r="F142" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I142" s="1">
+        <v>30009</v>
+      </c>
+      <c r="J142">
+        <v>9</v>
+      </c>
+      <c r="K142">
+        <v>542824012</v>
+      </c>
+      <c r="L142" t="s">
+        <v>400</v>
+      </c>
+      <c r="M142" t="s">
+        <v>223</v>
+      </c>
+      <c r="N142" t="s">
+        <v>401</v>
+      </c>
+      <c r="O142">
+        <v>437</v>
+      </c>
+      <c r="P142" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>329</v>
+      </c>
+      <c r="R142" t="s">
+        <v>403</v>
+      </c>
+      <c r="S142" t="s">
+        <v>138</v>
+      </c>
+      <c r="T142">
+        <v>97242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>38652</v>
       </c>
@@ -11638,8 +12088,44 @@
       <c r="F143" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I143" s="1">
+        <v>31857</v>
+      </c>
+      <c r="J143">
+        <v>1857</v>
+      </c>
+      <c r="K143">
+        <v>240268041</v>
+      </c>
+      <c r="L143" t="s">
+        <v>404</v>
+      </c>
+      <c r="M143" t="s">
+        <v>223</v>
+      </c>
+      <c r="N143" t="s">
+        <v>405</v>
+      </c>
+      <c r="O143">
+        <v>821</v>
+      </c>
+      <c r="P143" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>329</v>
+      </c>
+      <c r="R143" t="s">
+        <v>389</v>
+      </c>
+      <c r="S143" t="s">
+        <v>57</v>
+      </c>
+      <c r="T143">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>38794</v>
       </c>
@@ -11658,8 +12144,44 @@
       <c r="F144" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I144" s="1">
+        <v>32015</v>
+      </c>
+      <c r="J144">
+        <v>2015</v>
+      </c>
+      <c r="K144">
+        <v>111231226</v>
+      </c>
+      <c r="L144" t="s">
+        <v>372</v>
+      </c>
+      <c r="M144" t="s">
+        <v>125</v>
+      </c>
+      <c r="N144" t="s">
+        <v>407</v>
+      </c>
+      <c r="O144">
+        <v>201</v>
+      </c>
+      <c r="P144" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>329</v>
+      </c>
+      <c r="R144" t="s">
+        <v>409</v>
+      </c>
+      <c r="S144" t="s">
+        <v>60</v>
+      </c>
+      <c r="T144">
+        <v>21213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>38883</v>
       </c>
@@ -11678,8 +12200,44 @@
       <c r="F145" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I145" s="1">
+        <v>32637</v>
+      </c>
+      <c r="J145">
+        <v>2637</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>410</v>
+      </c>
+      <c r="M145" t="s">
+        <v>223</v>
+      </c>
+      <c r="N145" t="s">
+        <v>411</v>
+      </c>
+      <c r="O145">
+        <v>890</v>
+      </c>
+      <c r="P145" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>329</v>
+      </c>
+      <c r="R145" t="s">
+        <v>413</v>
+      </c>
+      <c r="S145" t="s">
+        <v>146</v>
+      </c>
+      <c r="T145">
+        <v>16617</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>39150</v>
       </c>
@@ -11698,8 +12256,44 @@
       <c r="F146" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I146" s="1">
+        <v>34052</v>
+      </c>
+      <c r="J146">
+        <v>4052</v>
+      </c>
+      <c r="K146">
+        <v>280610133</v>
+      </c>
+      <c r="L146" t="s">
+        <v>414</v>
+      </c>
+      <c r="M146" t="s">
+        <v>223</v>
+      </c>
+      <c r="N146" t="s">
+        <v>415</v>
+      </c>
+      <c r="O146">
+        <v>304</v>
+      </c>
+      <c r="P146" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>329</v>
+      </c>
+      <c r="R146" t="s">
+        <v>417</v>
+      </c>
+      <c r="S146" t="s">
+        <v>138</v>
+      </c>
+      <c r="T146">
+        <v>97242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>39154</v>
       </c>
@@ -11718,8 +12312,44 @@
       <c r="F147" s="1">
         <v>80922</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I147" s="1">
+        <v>36067</v>
+      </c>
+      <c r="J147">
+        <v>6067</v>
+      </c>
+      <c r="K147">
+        <v>433630812</v>
+      </c>
+      <c r="L147" t="s">
+        <v>418</v>
+      </c>
+      <c r="M147" t="s">
+        <v>334</v>
+      </c>
+      <c r="N147" t="s">
+        <v>419</v>
+      </c>
+      <c r="O147">
+        <v>408</v>
+      </c>
+      <c r="P147" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>329</v>
+      </c>
+      <c r="R147" t="s">
+        <v>421</v>
+      </c>
+      <c r="S147" t="s">
+        <v>138</v>
+      </c>
+      <c r="T147">
+        <v>97242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>39190</v>
       </c>
@@ -11738,8 +12368,44 @@
       <c r="F148" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I148" s="1">
+        <v>36114</v>
+      </c>
+      <c r="J148">
+        <v>6114</v>
+      </c>
+      <c r="K148">
+        <v>628663233</v>
+      </c>
+      <c r="L148" t="s">
+        <v>422</v>
+      </c>
+      <c r="M148" t="s">
+        <v>334</v>
+      </c>
+      <c r="N148" t="s">
+        <v>423</v>
+      </c>
+      <c r="O148">
+        <v>873</v>
+      </c>
+      <c r="P148" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>329</v>
+      </c>
+      <c r="R148" t="s">
+        <v>425</v>
+      </c>
+      <c r="S148" t="s">
+        <v>68</v>
+      </c>
+      <c r="T148">
+        <v>17067</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>39257</v>
       </c>
@@ -11758,8 +12424,44 @@
       <c r="F149" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I149" s="1">
+        <v>36476</v>
+      </c>
+      <c r="J149">
+        <v>6476</v>
+      </c>
+      <c r="K149">
+        <v>400314535</v>
+      </c>
+      <c r="L149" t="s">
+        <v>426</v>
+      </c>
+      <c r="M149" t="s">
+        <v>97</v>
+      </c>
+      <c r="N149" t="s">
+        <v>427</v>
+      </c>
+      <c r="O149">
+        <v>584</v>
+      </c>
+      <c r="P149" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>329</v>
+      </c>
+      <c r="R149" t="s">
+        <v>429</v>
+      </c>
+      <c r="S149" t="s">
+        <v>146</v>
+      </c>
+      <c r="T149">
+        <v>16617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>39358</v>
       </c>
@@ -11778,8 +12480,44 @@
       <c r="F150" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I150" s="1">
+        <v>38263</v>
+      </c>
+      <c r="J150">
+        <v>8263</v>
+      </c>
+      <c r="K150">
+        <v>170560461</v>
+      </c>
+      <c r="L150" t="s">
+        <v>430</v>
+      </c>
+      <c r="M150" t="s">
+        <v>246</v>
+      </c>
+      <c r="N150" t="s">
+        <v>431</v>
+      </c>
+      <c r="O150">
+        <v>629</v>
+      </c>
+      <c r="P150" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>329</v>
+      </c>
+      <c r="R150" t="s">
+        <v>433</v>
+      </c>
+      <c r="S150" t="s">
+        <v>146</v>
+      </c>
+      <c r="T150">
+        <v>16617</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>39458</v>
       </c>
@@ -11798,8 +12536,44 @@
       <c r="F151" s="1">
         <v>58103</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I151" s="1">
+        <v>38664</v>
+      </c>
+      <c r="J151">
+        <v>8664</v>
+      </c>
+      <c r="K151">
+        <v>220747266</v>
+      </c>
+      <c r="L151" t="s">
+        <v>434</v>
+      </c>
+      <c r="M151" t="s">
+        <v>335</v>
+      </c>
+      <c r="N151" t="s">
+        <v>435</v>
+      </c>
+      <c r="O151">
+        <v>219</v>
+      </c>
+      <c r="P151" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>329</v>
+      </c>
+      <c r="R151" t="s">
+        <v>437</v>
+      </c>
+      <c r="S151" t="s">
+        <v>438</v>
+      </c>
+      <c r="T151">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>39625</v>
       </c>
@@ -11818,8 +12592,44 @@
       <c r="F152" s="1">
         <v>96765</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I152" s="1">
+        <v>39811</v>
+      </c>
+      <c r="J152">
+        <v>9811</v>
+      </c>
+      <c r="K152">
+        <v>137268218</v>
+      </c>
+      <c r="L152" t="s">
+        <v>439</v>
+      </c>
+      <c r="M152" t="s">
+        <v>28</v>
+      </c>
+      <c r="N152" t="s">
+        <v>440</v>
+      </c>
+      <c r="O152">
+        <v>113</v>
+      </c>
+      <c r="P152" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>329</v>
+      </c>
+      <c r="R152" t="s">
+        <v>442</v>
+      </c>
+      <c r="S152" t="s">
+        <v>138</v>
+      </c>
+      <c r="T152">
+        <v>97242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>39835</v>
       </c>
@@ -11839,7 +12649,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>39853</v>
       </c>
@@ -11859,7 +12669,7 @@
         <v>50551</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>39874</v>
       </c>

--- a/input/Truth-easy-compare.xlsx
+++ b/input/Truth-easy-compare.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="459">
   <si>
     <t>FNAME</t>
   </si>
@@ -1396,6 +1396,19 @@
   </si>
   <si>
     <t>easy-Repair Accuracy:0.9337349397590362</t>
+  </si>
+  <si>
+    <t>S8490-NeedRepair</t>
+  </si>
+  <si>
+    <t>8-NeedRepair</t>
+  </si>
+  <si>
+    <t>95-NeedRepair</t>
+  </si>
+  <si>
+    <t>834W3-NeedRepair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1782,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5606,7 +5619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
@@ -8927,7 +8940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
@@ -12756,7 +12769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -16358,7 +16371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -20008,7 +20021,7 @@
   <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -23388,12 +23401,3154 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="5">
+        <v>108</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5">
+        <v>374</v>
+      </c>
+      <c r="D1">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>295</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>295</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>322</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>322</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>702</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>427</v>
+      </c>
+      <c r="D4">
+        <v>702</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>891</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>738160168</v>
+      </c>
+      <c r="D5">
+        <v>891</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>738160168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1138</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>1460</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1460</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>1671</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>1671</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>2373</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>2373</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>3219</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>96334</v>
+      </c>
+      <c r="D10">
+        <v>3219</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>96334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>3384</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>3384</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>3511</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>3511</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>3590</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>3590</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>3878</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>634</v>
+      </c>
+      <c r="D14">
+        <v>3878</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>3921</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>919</v>
+      </c>
+      <c r="D15">
+        <v>3921</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>4281</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <v>649</v>
+      </c>
+      <c r="D16">
+        <v>4281</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>4498</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>4498</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>4629</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>4629</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>5105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>5105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>5166</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>19955</v>
+      </c>
+      <c r="D20">
+        <v>5166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>19955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>5407</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5">
+        <v>564</v>
+      </c>
+      <c r="D21">
+        <v>5407</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>5993</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>561046513</v>
+      </c>
+      <c r="D22">
+        <v>5993</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>561046513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>6010</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>6010</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>6185</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>343</v>
+      </c>
+      <c r="D24">
+        <v>6185</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>7417</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>7417</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>7515</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>7515</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>7894</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>7894</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>7902</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>42406</v>
+      </c>
+      <c r="D28">
+        <v>7902</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>42406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>8212</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>483438704</v>
+      </c>
+      <c r="D29">
+        <v>8212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>483438704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>8257</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5">
+        <v>978</v>
+      </c>
+      <c r="D30">
+        <v>8257</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>10665</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>457340183</v>
+      </c>
+      <c r="D31">
+        <v>10665</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>457340183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>10923</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5">
+        <v>240</v>
+      </c>
+      <c r="D32">
+        <v>10923</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>11938</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <v>555</v>
+      </c>
+      <c r="D33">
+        <v>11938</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>11962</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>11962</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>12601</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3034</v>
+      </c>
+      <c r="D35">
+        <v>12601</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>13226</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>13226</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>13260</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>3057</v>
+      </c>
+      <c r="D37">
+        <v>13260</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>13426</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>13426</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>13650</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
+        <v>247173463</v>
+      </c>
+      <c r="D39">
+        <v>13650</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>247173463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>14256</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>14256</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>14595</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>14595</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>15043</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>25632</v>
+      </c>
+      <c r="D42">
+        <v>15043</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>25632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>15193</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5">
+        <v>55101</v>
+      </c>
+      <c r="D43">
+        <v>15193</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>55101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>15479</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>15479</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <v>16464</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>16464</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>16666</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>16666</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <v>16828</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5">
+        <v>170456775</v>
+      </c>
+      <c r="D47">
+        <v>16828</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>170456775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="5">
+        <v>17497</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>17497</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
+        <v>19726</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>19726</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
+        <v>20139</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>20139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <v>20181</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5">
+        <v>713500276</v>
+      </c>
+      <c r="D51">
+        <v>20181</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>713500276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <v>20479</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>20479</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <v>20825</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53">
+        <v>20825</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <v>21451</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>21451</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <v>22514</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1984</v>
+      </c>
+      <c r="D55">
+        <v>22514</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <v>22577</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>22577</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <v>22745</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57">
+        <v>22745</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <v>22825</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>22825</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <v>23361</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>23361</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <v>24248</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5">
+        <v>727681570</v>
+      </c>
+      <c r="D60">
+        <v>24248</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>727681570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <v>24510</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="5">
+        <v>646</v>
+      </c>
+      <c r="D61">
+        <v>24510</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
+        <v>25517</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>25517</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
+        <v>26820</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63">
+        <v>26820</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
+        <v>27268</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>27268</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
+        <v>27453</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5">
+        <v>185</v>
+      </c>
+      <c r="D65">
+        <v>27453</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="5">
+        <v>27553</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66">
+        <v>27553</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="5">
+        <v>27661</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>27661</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="5">
+        <v>28373</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>28373</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="5">
+        <v>28604</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5">
+        <v>281831674</v>
+      </c>
+      <c r="D69">
+        <v>28604</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>281831674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="5">
+        <v>28756</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>28756</v>
+      </c>
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="5">
+        <v>28993</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>28993</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="5">
+        <v>29002</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>29002</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="5">
+        <v>29236</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73">
+        <v>29236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="5">
+        <v>29409</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74">
+        <v>29409</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="5">
+        <v>29622</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75">
+        <v>29622</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="5">
+        <v>30502</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76">
+        <v>30502</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="5">
+        <v>30788</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5">
+        <v>83423</v>
+      </c>
+      <c r="D77" s="9">
+        <v>30788</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <v>30792</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78">
+        <v>30792</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="5">
+        <v>30982</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5">
+        <v>26833</v>
+      </c>
+      <c r="D79">
+        <v>30982</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>26833</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="5">
+        <v>31086</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80">
+        <v>31086</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="5">
+        <v>31109</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5">
+        <v>59826</v>
+      </c>
+      <c r="D81">
+        <v>31109</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>59826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="5">
+        <v>31267</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="5">
+        <v>57252</v>
+      </c>
+      <c r="D82">
+        <v>31267</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>57252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <v>31313</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>31313</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="5">
+        <v>31353</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <v>31353</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <v>31364</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85">
+        <v>31364</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <v>31737</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86">
+        <v>31737</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="5">
+        <v>31762</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87">
+        <v>31762</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <v>31779</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5">
+        <v>95825</v>
+      </c>
+      <c r="D88">
+        <v>31779</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>95825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
+        <v>31784</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="5">
+        <v>80941</v>
+      </c>
+      <c r="D89">
+        <v>31784</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>80941</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <v>31844</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90">
+        <v>31844</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
+        <v>31979</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="5">
+        <v>58501</v>
+      </c>
+      <c r="D91">
+        <v>31979</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>58501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <v>31981</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="5">
+        <v>58783</v>
+      </c>
+      <c r="D92">
+        <v>31981</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>58783</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>32080</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93">
+        <v>32080</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <v>32094</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5">
+        <v>18415</v>
+      </c>
+      <c r="D94">
+        <v>32094</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>18415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>32213</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95">
+        <v>32213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <v>32241</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="5">
+        <v>73663</v>
+      </c>
+      <c r="D96">
+        <v>32241</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>73663</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>32466</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="5">
+        <v>37644</v>
+      </c>
+      <c r="D97">
+        <v>32466</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>37644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <v>32592</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="5">
+        <v>83244</v>
+      </c>
+      <c r="D98">
+        <v>32592</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>83244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <v>32796</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99">
+        <v>32796</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>32916</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>38577</v>
+      </c>
+      <c r="D100">
+        <v>32916</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>38577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <v>33061</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101">
+        <v>33061</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <v>33134</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="5">
+        <v>20815</v>
+      </c>
+      <c r="D102">
+        <v>33134</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>20815</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>33234</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103">
+        <v>33234</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="5">
+        <v>33411</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104">
+        <v>33411</v>
+      </c>
+      <c r="E104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="5">
+        <v>33441</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="5">
+        <v>92514</v>
+      </c>
+      <c r="D105">
+        <v>33441</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>92514</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="5">
+        <v>33949</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="5">
+        <v>21161</v>
+      </c>
+      <c r="D106">
+        <v>33949</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106">
+        <v>21161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="5">
+        <v>34374</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="5">
+        <v>4733</v>
+      </c>
+      <c r="D107">
+        <v>34374</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="5">
+        <v>34524</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108">
+        <v>34524</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="5">
+        <v>34629</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109">
+        <v>34629</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="5">
+        <v>34863</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110">
+        <v>34863</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="5">
+        <v>34977</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111">
+        <v>34977</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="5">
+        <v>35058</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112">
+        <v>35058</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="5">
+        <v>35232</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113">
+        <v>35232</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="5">
+        <v>35306</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="5">
+        <v>26555</v>
+      </c>
+      <c r="D114">
+        <v>35306</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>26555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <v>35455</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115">
+        <v>35455</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <v>35706</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116">
+        <v>35706</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="5">
+        <v>35719</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="5">
+        <v>16839</v>
+      </c>
+      <c r="D117">
+        <v>35719</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>16839</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="5">
+        <v>36142</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118">
+        <v>36142</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="5">
+        <v>36279</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="5">
+        <v>27416</v>
+      </c>
+      <c r="D119">
+        <v>36279</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119">
+        <v>27416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="5">
+        <v>36350</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="5">
+        <v>89505</v>
+      </c>
+      <c r="D120">
+        <v>36350</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>89505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="5">
+        <v>36478</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="5">
+        <v>66018</v>
+      </c>
+      <c r="D121">
+        <v>36478</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>66018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="5">
+        <v>36563</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D122">
+        <v>36563</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="5">
+        <v>36706</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="5">
+        <v>68868</v>
+      </c>
+      <c r="D123">
+        <v>36706</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>68868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="5">
+        <v>36846</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124">
+        <v>36846</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="5">
+        <v>37074</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="5">
+        <v>83714</v>
+      </c>
+      <c r="D125">
+        <v>37074</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>83714</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="5">
+        <v>37227</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="5">
+        <v>85777</v>
+      </c>
+      <c r="D126">
+        <v>37227</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>85777</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="5">
+        <v>37274</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127">
+        <v>37274</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="5">
+        <v>37282</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D128">
+        <v>37282</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="5">
+        <v>37398</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="5">
+        <v>72059</v>
+      </c>
+      <c r="D129">
+        <v>37398</v>
+      </c>
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>72059</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="5">
+        <v>37540</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130">
+        <v>37540</v>
+      </c>
+      <c r="E130" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="5">
+        <v>37680</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="5">
+        <v>59530</v>
+      </c>
+      <c r="D131">
+        <v>37680</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>59530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="5">
+        <v>37861</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="5">
+        <v>46783</v>
+      </c>
+      <c r="D132">
+        <v>37861</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>46783</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="5">
+        <v>37904</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="5">
+        <v>58490</v>
+      </c>
+      <c r="D133" s="9">
+        <v>37904</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="5">
+        <v>37920</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="5">
+        <v>95958</v>
+      </c>
+      <c r="D134" s="9">
+        <v>37920</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" s="5">
+        <v>38070</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="5">
+        <v>67870</v>
+      </c>
+      <c r="D135">
+        <v>38070</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>67870</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" s="5">
+        <v>38167</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136">
+        <v>38167</v>
+      </c>
+      <c r="E136" t="s">
+        <v>22</v>
+      </c>
+      <c r="F136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="5">
+        <v>38188</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="5">
+        <v>23964</v>
+      </c>
+      <c r="D137">
+        <v>38188</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>23964</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="5">
+        <v>38206</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138">
+        <v>38206</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A139" s="5">
+        <v>38284</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="5">
+        <v>41184</v>
+      </c>
+      <c r="D139">
+        <v>38284</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A140" s="5">
+        <v>38482</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="5">
+        <v>68817</v>
+      </c>
+      <c r="D140" s="9">
+        <v>38482</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A141" s="5">
+        <v>38532</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="5">
+        <v>43452</v>
+      </c>
+      <c r="D141">
+        <v>38532</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A142" s="5">
+        <v>38552</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142">
+        <v>38552</v>
+      </c>
+      <c r="E142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A143" s="5">
+        <v>38652</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143">
+        <v>38652</v>
+      </c>
+      <c r="E143" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A144" s="5">
+        <v>38794</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144">
+        <v>38794</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="5">
+        <v>38883</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145">
+        <v>38883</v>
+      </c>
+      <c r="E145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="5">
+        <v>39150</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D146">
+        <v>39150</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="5">
+        <v>39154</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="5">
+        <v>80922</v>
+      </c>
+      <c r="D147">
+        <v>39154</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>80922</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="5">
+        <v>39190</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148">
+        <v>39190</v>
+      </c>
+      <c r="E148" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="5">
+        <v>39257</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149">
+        <v>39257</v>
+      </c>
+      <c r="E149" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="5">
+        <v>39358</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150">
+        <v>39358</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="5">
+        <v>39458</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="5">
+        <v>58103</v>
+      </c>
+      <c r="D151">
+        <v>39458</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>58103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="5">
+        <v>39625</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="5">
+        <v>96765</v>
+      </c>
+      <c r="D152">
+        <v>39625</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>96765</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="5">
+        <v>39835</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153">
+        <v>39835</v>
+      </c>
+      <c r="E153" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="5">
+        <v>39853</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="5">
+        <v>50551</v>
+      </c>
+      <c r="D154">
+        <v>39853</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>50551</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="5">
+        <v>39874</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155">
+        <v>39874</v>
+      </c>
+      <c r="E155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="D1:H156">
+    <sortCondition ref="D1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
